--- a/InputData/trans/BAADTbVT/BAU Avg Annual Dist Traveled by Veh Type.xlsx
+++ b/InputData/trans/BAADTbVT/BAU Avg Annual Dist Traveled by Veh Type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\South Korea\eps-southkorea\InputData\trans\BAADTbVT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-southkorea\InputData\trans\BAADTbVT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768F6225-10C5-408A-B394-28DA1326BDC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0121A9-C9AF-472C-9ABC-E84C23C25E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="110" windowWidth="17800" windowHeight="13030" firstSheet="29" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -6892,17 +6892,56 @@
     <xf numFmtId="0" fontId="51" fillId="33" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="49" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="169" fontId="49" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="49" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="49" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6922,45 +6961,6 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="49" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="49" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="49" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -6976,14 +6976,8 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="158" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6997,10 +6991,12 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -7010,16 +7006,20 @@
     <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="158" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7045,10 +7045,10 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -7061,15 +7061,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7088,6 +7079,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7671,7 +7671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -10534,11 +10534,11 @@
       <c r="B50" s="411" t="s">
         <v>386</v>
       </c>
-      <c r="C50" s="436" t="s">
+      <c r="C50" s="435" t="s">
         <v>387</v>
       </c>
-      <c r="D50" s="436"/>
-      <c r="E50" s="436"/>
+      <c r="D50" s="435"/>
+      <c r="E50" s="435"/>
       <c r="F50" s="159">
         <v>2</v>
       </c>
@@ -10549,11 +10549,11 @@
     </row>
     <row r="51" spans="2:8">
       <c r="B51" s="411"/>
-      <c r="C51" s="436" t="s">
+      <c r="C51" s="435" t="s">
         <v>350</v>
       </c>
-      <c r="D51" s="436"/>
-      <c r="E51" s="436"/>
+      <c r="D51" s="435"/>
+      <c r="E51" s="435"/>
       <c r="F51" s="159">
         <v>3</v>
       </c>
@@ -10564,11 +10564,11 @@
     </row>
     <row r="52" spans="2:8">
       <c r="B52" s="411"/>
-      <c r="C52" s="436" t="s">
+      <c r="C52" s="435" t="s">
         <v>388</v>
       </c>
-      <c r="D52" s="436"/>
-      <c r="E52" s="436"/>
+      <c r="D52" s="435"/>
+      <c r="E52" s="435"/>
       <c r="F52" s="159">
         <v>2</v>
       </c>
@@ -10577,11 +10577,11 @@
     </row>
     <row r="53" spans="2:8">
       <c r="B53" s="411"/>
-      <c r="C53" s="436" t="s">
+      <c r="C53" s="435" t="s">
         <v>389</v>
       </c>
-      <c r="D53" s="436"/>
-      <c r="E53" s="436"/>
+      <c r="D53" s="435"/>
+      <c r="E53" s="435"/>
       <c r="F53" s="159">
         <v>1</v>
       </c>
@@ -10590,11 +10590,11 @@
     </row>
     <row r="54" spans="2:8">
       <c r="B54" s="411"/>
-      <c r="C54" s="436" t="s">
+      <c r="C54" s="435" t="s">
         <v>390</v>
       </c>
-      <c r="D54" s="436"/>
-      <c r="E54" s="436"/>
+      <c r="D54" s="435"/>
+      <c r="E54" s="435"/>
       <c r="F54" s="159">
         <v>1</v>
       </c>
@@ -10605,11 +10605,11 @@
     </row>
     <row r="55" spans="2:8">
       <c r="B55" s="411"/>
-      <c r="C55" s="436" t="s">
+      <c r="C55" s="435" t="s">
         <v>391</v>
       </c>
-      <c r="D55" s="436"/>
-      <c r="E55" s="436"/>
+      <c r="D55" s="435"/>
+      <c r="E55" s="435"/>
       <c r="F55" s="159"/>
       <c r="G55" s="155">
         <v>4</v>
@@ -10618,11 +10618,11 @@
     </row>
     <row r="56" spans="2:8">
       <c r="B56" s="411"/>
-      <c r="C56" s="436" t="s">
+      <c r="C56" s="435" t="s">
         <v>392</v>
       </c>
-      <c r="D56" s="436"/>
-      <c r="E56" s="436"/>
+      <c r="D56" s="435"/>
+      <c r="E56" s="435"/>
       <c r="F56" s="159">
         <v>4</v>
       </c>
@@ -10633,11 +10633,11 @@
     </row>
     <row r="57" spans="2:8">
       <c r="B57" s="411"/>
-      <c r="C57" s="436" t="s">
+      <c r="C57" s="435" t="s">
         <v>393</v>
       </c>
-      <c r="D57" s="436"/>
-      <c r="E57" s="436"/>
+      <c r="D57" s="435"/>
+      <c r="E57" s="435"/>
       <c r="F57" s="159">
         <v>2</v>
       </c>
@@ -10662,12 +10662,12 @@
       <c r="H58" s="157"/>
     </row>
     <row r="59" spans="2:8">
-      <c r="B59" s="435" t="s">
+      <c r="B59" s="436" t="s">
         <v>394</v>
       </c>
-      <c r="C59" s="435"/>
-      <c r="D59" s="435"/>
-      <c r="E59" s="435"/>
+      <c r="C59" s="436"/>
+      <c r="D59" s="436"/>
+      <c r="E59" s="436"/>
       <c r="F59" s="155">
         <f>SUM($F$49,$F$58)</f>
         <v>429</v>
@@ -10682,11 +10682,11 @@
       <c r="B60" s="153" t="s">
         <v>395</v>
       </c>
-      <c r="C60" s="436" t="s">
+      <c r="C60" s="435" t="s">
         <v>396</v>
       </c>
-      <c r="D60" s="436"/>
-      <c r="E60" s="436"/>
+      <c r="D60" s="435"/>
+      <c r="E60" s="435"/>
       <c r="F60" s="155">
         <v>83</v>
       </c>
@@ -10696,14 +10696,14 @@
       <c r="H60" s="157"/>
     </row>
     <row r="61" spans="2:8">
-      <c r="B61" s="435" t="s">
+      <c r="B61" s="436" t="s">
         <v>397</v>
       </c>
-      <c r="C61" s="436" t="s">
+      <c r="C61" s="435" t="s">
         <v>398</v>
       </c>
-      <c r="D61" s="436"/>
-      <c r="E61" s="436"/>
+      <c r="D61" s="435"/>
+      <c r="E61" s="435"/>
       <c r="F61" s="155">
         <v>111</v>
       </c>
@@ -10713,12 +10713,12 @@
       <c r="H61" s="157"/>
     </row>
     <row r="62" spans="2:8">
-      <c r="B62" s="435"/>
-      <c r="C62" s="436" t="s">
+      <c r="B62" s="436"/>
+      <c r="C62" s="435" t="s">
         <v>399</v>
       </c>
-      <c r="D62" s="436"/>
-      <c r="E62" s="436"/>
+      <c r="D62" s="435"/>
+      <c r="E62" s="435"/>
       <c r="F62" s="155"/>
       <c r="G62" s="155">
         <v>2</v>
@@ -10726,12 +10726,12 @@
       <c r="H62" s="157"/>
     </row>
     <row r="63" spans="2:8">
-      <c r="B63" s="435"/>
-      <c r="C63" s="436" t="s">
+      <c r="B63" s="436"/>
+      <c r="C63" s="435" t="s">
         <v>400</v>
       </c>
-      <c r="D63" s="436"/>
-      <c r="E63" s="436"/>
+      <c r="D63" s="435"/>
+      <c r="E63" s="435"/>
       <c r="F63" s="155">
         <v>2</v>
       </c>
@@ -10739,12 +10739,12 @@
       <c r="H63" s="157"/>
     </row>
     <row r="64" spans="2:8">
-      <c r="B64" s="435"/>
-      <c r="C64" s="436" t="s">
+      <c r="B64" s="436"/>
+      <c r="C64" s="435" t="s">
         <v>401</v>
       </c>
-      <c r="D64" s="436"/>
-      <c r="E64" s="436"/>
+      <c r="D64" s="435"/>
+      <c r="E64" s="435"/>
       <c r="F64" s="155">
         <v>1</v>
       </c>
@@ -10754,12 +10754,12 @@
       <c r="H64" s="157"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="B65" s="435"/>
-      <c r="C65" s="436" t="s">
+      <c r="B65" s="436"/>
+      <c r="C65" s="435" t="s">
         <v>402</v>
       </c>
-      <c r="D65" s="436"/>
-      <c r="E65" s="436"/>
+      <c r="D65" s="435"/>
+      <c r="E65" s="435"/>
       <c r="F65" s="155">
         <v>19</v>
       </c>
@@ -10769,12 +10769,12 @@
       <c r="H65" s="157"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="B66" s="435"/>
-      <c r="C66" s="435" t="s">
+      <c r="B66" s="436"/>
+      <c r="C66" s="436" t="s">
         <v>360</v>
       </c>
-      <c r="D66" s="435"/>
-      <c r="E66" s="435"/>
+      <c r="D66" s="436"/>
+      <c r="E66" s="436"/>
       <c r="F66" s="155">
         <f>SUM($F$61:$F$65)</f>
         <v>133</v>
@@ -10786,12 +10786,12 @@
       <c r="H66" s="157"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="B67" s="435" t="s">
+      <c r="B67" s="436" t="s">
         <v>403</v>
       </c>
-      <c r="C67" s="435"/>
-      <c r="D67" s="435"/>
-      <c r="E67" s="435"/>
+      <c r="C67" s="436"/>
+      <c r="D67" s="436"/>
+      <c r="E67" s="436"/>
       <c r="F67" s="155">
         <f>SUM($F$66,$F$59,$F$60)</f>
         <v>645</v>
@@ -10849,6 +10849,35 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="B61:B66"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="B50:B58"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="B3:B49"/>
+    <mergeCell ref="C3:C15"/>
+    <mergeCell ref="D3:D11"/>
+    <mergeCell ref="D43:D44"/>
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="C47:C48"/>
@@ -10865,35 +10894,6 @@
     <mergeCell ref="C34:C36"/>
     <mergeCell ref="D34:D36"/>
     <mergeCell ref="C37:C40"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="B50:B58"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="B3:B49"/>
-    <mergeCell ref="C3:C15"/>
-    <mergeCell ref="D3:D11"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="B61:B66"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C66:E66"/>
   </mergeCells>
   <phoneticPr fontId="42" type="noConversion"/>
   <hyperlinks>
@@ -41373,7 +41373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F81A32-6E09-4536-9605-3AE70AD9D670}">
   <dimension ref="A1:FA78"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
@@ -46194,7 +46194,7 @@
       <c r="FA22" s="217"/>
     </row>
     <row r="23" spans="1:157" ht="20.149999999999999" customHeight="1">
-      <c r="A23" s="445" t="s">
+      <c r="A23" s="442" t="s">
         <v>286</v>
       </c>
       <c r="B23" s="133" t="s">
@@ -46415,7 +46415,7 @@
       <c r="FA23" s="217"/>
     </row>
     <row r="24" spans="1:157" ht="20.149999999999999" customHeight="1">
-      <c r="A24" s="446"/>
+      <c r="A24" s="443"/>
       <c r="B24" s="133" t="s">
         <v>285</v>
       </c>
@@ -46634,7 +46634,7 @@
       <c r="FA24" s="217"/>
     </row>
     <row r="25" spans="1:157" ht="20.149999999999999" customHeight="1">
-      <c r="A25" s="446"/>
+      <c r="A25" s="443"/>
       <c r="B25" s="133" t="s">
         <v>601</v>
       </c>
@@ -46853,7 +46853,7 @@
       <c r="FA25" s="217"/>
     </row>
     <row r="26" spans="1:157" ht="20.149999999999999" customHeight="1">
-      <c r="A26" s="446"/>
+      <c r="A26" s="443"/>
       <c r="B26" s="133" t="s">
         <v>284</v>
       </c>
@@ -47072,7 +47072,7 @@
       <c r="FA26" s="217"/>
     </row>
     <row r="27" spans="1:157" ht="20.149999999999999" customHeight="1">
-      <c r="A27" s="447"/>
+      <c r="A27" s="444"/>
       <c r="B27" s="133" t="s">
         <v>283</v>
       </c>
@@ -47291,7 +47291,7 @@
       <c r="FA27" s="217"/>
     </row>
     <row r="28" spans="1:157" ht="20.149999999999999" customHeight="1">
-      <c r="A28" s="445" t="s">
+      <c r="A28" s="442" t="s">
         <v>287</v>
       </c>
       <c r="B28" s="133" t="s">
@@ -47512,7 +47512,7 @@
       <c r="FA28" s="217"/>
     </row>
     <row r="29" spans="1:157" ht="20.149999999999999" customHeight="1">
-      <c r="A29" s="446"/>
+      <c r="A29" s="443"/>
       <c r="B29" s="133" t="s">
         <v>284</v>
       </c>
@@ -47731,7 +47731,7 @@
       <c r="FA29" s="217"/>
     </row>
     <row r="30" spans="1:157" ht="20.149999999999999" customHeight="1">
-      <c r="A30" s="447"/>
+      <c r="A30" s="444"/>
       <c r="B30" s="136" t="s">
         <v>283</v>
       </c>
@@ -47950,7 +47950,7 @@
       <c r="FA30" s="217"/>
     </row>
     <row r="31" spans="1:157" ht="20.149999999999999" customHeight="1">
-      <c r="A31" s="444" t="s">
+      <c r="A31" s="441" t="s">
         <v>451</v>
       </c>
       <c r="B31" s="136" t="s">
@@ -48182,7 +48182,7 @@
       <c r="FA31" s="217"/>
     </row>
     <row r="32" spans="1:157" ht="20.149999999999999" customHeight="1">
-      <c r="A32" s="444"/>
+      <c r="A32" s="441"/>
       <c r="B32" s="136" t="s">
         <v>602</v>
       </c>
@@ -48423,37 +48423,37 @@
       <c r="A34" s="211" t="s">
         <v>454</v>
       </c>
-      <c r="B34" s="442" t="s">
+      <c r="B34" s="448" t="s">
         <v>450</v>
       </c>
-      <c r="C34" s="442"/>
-      <c r="D34" s="442" t="s">
+      <c r="C34" s="448"/>
+      <c r="D34" s="448" t="s">
         <v>447</v>
       </c>
-      <c r="E34" s="442"/>
-      <c r="F34" s="442" t="s">
+      <c r="E34" s="448"/>
+      <c r="F34" s="448" t="s">
         <v>451</v>
       </c>
-      <c r="G34" s="442"/>
+      <c r="G34" s="448"/>
       <c r="I34" s="200" t="s">
         <v>453</v>
       </c>
-      <c r="J34" s="443" t="s">
+      <c r="J34" s="449" t="s">
         <v>450</v>
       </c>
-      <c r="K34" s="443"/>
-      <c r="L34" s="441" t="s">
+      <c r="K34" s="449"/>
+      <c r="L34" s="447" t="s">
         <v>447</v>
       </c>
-      <c r="M34" s="441"/>
-      <c r="N34" s="441" t="s">
+      <c r="M34" s="447"/>
+      <c r="N34" s="447" t="s">
         <v>451</v>
       </c>
-      <c r="O34" s="441"/>
-      <c r="P34" s="441" t="s">
+      <c r="O34" s="447"/>
+      <c r="P34" s="447" t="s">
         <v>886</v>
       </c>
-      <c r="Q34" s="441"/>
+      <c r="Q34" s="447"/>
       <c r="T34" s="150"/>
       <c r="U34" s="150"/>
     </row>
@@ -50499,7 +50499,7 @@
       <c r="C67" s="151"/>
     </row>
     <row r="68" spans="1:19">
-      <c r="B68" s="448" t="s">
+      <c r="B68" s="445" t="s">
         <v>319</v>
       </c>
       <c r="C68" s="162" t="s">
@@ -50522,7 +50522,7 @@
       </c>
     </row>
     <row r="69" spans="1:19">
-      <c r="B69" s="449"/>
+      <c r="B69" s="446"/>
       <c r="C69" s="167">
         <f>INDEX($F$36:$F$65,MATCH(About!$B$62,$A$36:$A$65,0))*10^3</f>
         <v>18739764.699999992</v>
@@ -50549,7 +50549,7 @@
       </c>
     </row>
     <row r="71" spans="1:19">
-      <c r="B71" s="448" t="s">
+      <c r="B71" s="445" t="s">
         <v>320</v>
       </c>
       <c r="C71" s="162" t="s">
@@ -50572,7 +50572,7 @@
       </c>
     </row>
     <row r="72" spans="1:19">
-      <c r="B72" s="449"/>
+      <c r="B72" s="446"/>
       <c r="C72" s="163">
         <f>INDEX($N$36:$N$65,MATCH(About!$B$62,$I$36:$I$65,0))*10^3</f>
         <v>1595854738.9999981</v>
@@ -50627,11 +50627,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B71:B72"/>
     <mergeCell ref="P34:Q34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
@@ -50639,6 +50634,11 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="J34:K34"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B71:B72"/>
   </mergeCells>
   <phoneticPr fontId="42" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -51578,8 +51578,8 @@
   </sheetPr>
   <dimension ref="A1:AG7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:AG6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -52228,100 +52228,132 @@
         <v>5</v>
       </c>
       <c r="B6" s="11">
-        <v>237371.13741892608</v>
+        <f>'Ships-Cal'!H72</f>
+        <v>81662.909988119718</v>
       </c>
       <c r="C6" s="11">
-        <v>237371.13741892608</v>
+        <f>B6</f>
+        <v>81662.909988119718</v>
       </c>
       <c r="D6" s="11">
-        <v>237371.13741892608</v>
+        <f t="shared" ref="D6:AG6" si="4">C6</f>
+        <v>81662.909988119718</v>
       </c>
       <c r="E6" s="11">
-        <v>237371.13741892608</v>
+        <f t="shared" si="4"/>
+        <v>81662.909988119718</v>
       </c>
       <c r="F6" s="11">
-        <v>237371.13741892608</v>
+        <f t="shared" si="4"/>
+        <v>81662.909988119718</v>
       </c>
       <c r="G6" s="11">
-        <v>237371.13741892608</v>
+        <f t="shared" si="4"/>
+        <v>81662.909988119718</v>
       </c>
       <c r="H6" s="11">
-        <v>237371.13741892608</v>
+        <f t="shared" si="4"/>
+        <v>81662.909988119718</v>
       </c>
       <c r="I6" s="11">
-        <v>237371.13741892608</v>
+        <f t="shared" si="4"/>
+        <v>81662.909988119718</v>
       </c>
       <c r="J6" s="11">
-        <v>237371.13741892608</v>
+        <f t="shared" si="4"/>
+        <v>81662.909988119718</v>
       </c>
       <c r="K6" s="11">
-        <v>237371.13741892608</v>
+        <f t="shared" si="4"/>
+        <v>81662.909988119718</v>
       </c>
       <c r="L6" s="11">
-        <v>237371.13741892608</v>
+        <f t="shared" si="4"/>
+        <v>81662.909988119718</v>
       </c>
       <c r="M6" s="11">
-        <v>237371.13741892608</v>
+        <f t="shared" si="4"/>
+        <v>81662.909988119718</v>
       </c>
       <c r="N6" s="11">
-        <v>237371.13741892608</v>
+        <f t="shared" si="4"/>
+        <v>81662.909988119718</v>
       </c>
       <c r="O6" s="11">
-        <v>237371.13741892608</v>
+        <f t="shared" si="4"/>
+        <v>81662.909988119718</v>
       </c>
       <c r="P6" s="11">
-        <v>237371.13741892608</v>
+        <f t="shared" si="4"/>
+        <v>81662.909988119718</v>
       </c>
       <c r="Q6" s="11">
-        <v>237371.13741892608</v>
+        <f t="shared" si="4"/>
+        <v>81662.909988119718</v>
       </c>
       <c r="R6" s="11">
-        <v>237371.13741892608</v>
+        <f t="shared" si="4"/>
+        <v>81662.909988119718</v>
       </c>
       <c r="S6" s="11">
-        <v>237371.13741892608</v>
+        <f t="shared" si="4"/>
+        <v>81662.909988119718</v>
       </c>
       <c r="T6" s="11">
-        <v>237371.13741892608</v>
+        <f t="shared" si="4"/>
+        <v>81662.909988119718</v>
       </c>
       <c r="U6" s="11">
-        <v>237371.13741892608</v>
+        <f t="shared" si="4"/>
+        <v>81662.909988119718</v>
       </c>
       <c r="V6" s="11">
-        <v>237371.13741892608</v>
+        <f t="shared" si="4"/>
+        <v>81662.909988119718</v>
       </c>
       <c r="W6" s="11">
-        <v>237371.13741892608</v>
+        <f t="shared" si="4"/>
+        <v>81662.909988119718</v>
       </c>
       <c r="X6" s="11">
-        <v>237371.13741892608</v>
+        <f t="shared" si="4"/>
+        <v>81662.909988119718</v>
       </c>
       <c r="Y6" s="11">
-        <v>237371.13741892608</v>
+        <f t="shared" si="4"/>
+        <v>81662.909988119718</v>
       </c>
       <c r="Z6" s="11">
-        <v>237371.13741892608</v>
+        <f t="shared" si="4"/>
+        <v>81662.909988119718</v>
       </c>
       <c r="AA6" s="11">
-        <v>237371.13741892608</v>
+        <f t="shared" si="4"/>
+        <v>81662.909988119718</v>
       </c>
       <c r="AB6" s="11">
-        <v>237371.13741892608</v>
+        <f t="shared" si="4"/>
+        <v>81662.909988119718</v>
       </c>
       <c r="AC6" s="11">
-        <v>237371.13741892608</v>
+        <f t="shared" si="4"/>
+        <v>81662.909988119718</v>
       </c>
       <c r="AD6" s="11">
-        <v>237371.13741892608</v>
+        <f t="shared" si="4"/>
+        <v>81662.909988119718</v>
       </c>
       <c r="AE6" s="11">
-        <v>237371.13741892608</v>
+        <f t="shared" si="4"/>
+        <v>81662.909988119718</v>
       </c>
       <c r="AF6" s="11">
-        <v>237371.13741892608</v>
+        <f t="shared" si="4"/>
+        <v>81662.909988119718</v>
       </c>
       <c r="AG6" s="11">
-        <v>237371.13741892608</v>
+        <f t="shared" si="4"/>
+        <v>81662.909988119718</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -52333,127 +52365,127 @@
         <v>10573.883538920783</v>
       </c>
       <c r="C7" s="11">
-        <f t="shared" ref="C7" si="4">B7</f>
+        <f t="shared" ref="C7" si="5">B7</f>
         <v>10573.883538920783</v>
       </c>
       <c r="D7" s="11">
-        <f t="shared" ref="D7:AG7" si="5">C7</f>
+        <f t="shared" ref="D7:AG7" si="6">C7</f>
         <v>10573.883538920783</v>
       </c>
       <c r="E7" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10573.883538920783</v>
       </c>
       <c r="F7" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10573.883538920783</v>
       </c>
       <c r="G7" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10573.883538920783</v>
       </c>
       <c r="H7" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10573.883538920783</v>
       </c>
       <c r="I7" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10573.883538920783</v>
       </c>
       <c r="J7" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10573.883538920783</v>
       </c>
       <c r="K7" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10573.883538920783</v>
       </c>
       <c r="L7" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10573.883538920783</v>
       </c>
       <c r="M7" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10573.883538920783</v>
       </c>
       <c r="N7" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10573.883538920783</v>
       </c>
       <c r="O7" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10573.883538920783</v>
       </c>
       <c r="P7" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10573.883538920783</v>
       </c>
       <c r="Q7" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10573.883538920783</v>
       </c>
       <c r="R7" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10573.883538920783</v>
       </c>
       <c r="S7" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10573.883538920783</v>
       </c>
       <c r="T7" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10573.883538920783</v>
       </c>
       <c r="U7" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10573.883538920783</v>
       </c>
       <c r="V7" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10573.883538920783</v>
       </c>
       <c r="W7" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10573.883538920783</v>
       </c>
       <c r="X7" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10573.883538920783</v>
       </c>
       <c r="Y7" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10573.883538920783</v>
       </c>
       <c r="Z7" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10573.883538920783</v>
       </c>
       <c r="AA7" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10573.883538920783</v>
       </c>
       <c r="AB7" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10573.883538920783</v>
       </c>
       <c r="AC7" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10573.883538920783</v>
       </c>
       <c r="AD7" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10573.883538920783</v>
       </c>
       <c r="AE7" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10573.883538920783</v>
       </c>
       <c r="AF7" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10573.883538920783</v>
       </c>
       <c r="AG7" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10573.883538920783</v>
       </c>
     </row>
@@ -55156,6 +55188,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="F2:G2"/>
@@ -55172,7 +55205,6 @@
     <mergeCell ref="C26:C29"/>
     <mergeCell ref="C30:C32"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <phoneticPr fontId="42" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -55184,7 +55216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DFBDDAC-B339-42D3-A9DF-39C4EAB49459}">
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
@@ -55208,33 +55240,33 @@
   <sheetData>
     <row r="1" spans="1:19" ht="17.25" customHeight="1"/>
     <row r="2" spans="1:19">
-      <c r="A2" s="401"/>
-      <c r="B2" s="402"/>
+      <c r="A2" s="393"/>
+      <c r="B2" s="394"/>
       <c r="C2" s="41"/>
-      <c r="D2" s="408" t="s">
+      <c r="D2" s="389" t="s">
         <v>215</v>
       </c>
-      <c r="E2" s="408"/>
+      <c r="E2" s="389"/>
       <c r="F2" s="42"/>
-      <c r="G2" s="408">
+      <c r="G2" s="389">
         <v>2</v>
       </c>
-      <c r="H2" s="408"/>
+      <c r="H2" s="389"/>
       <c r="I2" s="42"/>
       <c r="J2" s="42"/>
       <c r="K2" s="41"/>
-      <c r="L2" s="408">
+      <c r="L2" s="389">
         <v>3</v>
       </c>
-      <c r="M2" s="408"/>
+      <c r="M2" s="389"/>
       <c r="N2" s="43"/>
       <c r="S2" s="32">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" thickBot="1">
-      <c r="A3" s="403"/>
-      <c r="B3" s="404"/>
+      <c r="A3" s="395"/>
+      <c r="B3" s="396"/>
       <c r="C3" s="38" t="s">
         <v>194</v>
       </c>
@@ -55274,10 +55306,10 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="15" thickBot="1">
-      <c r="A4" s="396" t="s">
+      <c r="A4" s="399" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="400" t="s">
+      <c r="B4" s="397" t="s">
         <v>205</v>
       </c>
       <c r="C4" s="68">
@@ -55303,7 +55335,7 @@
         <f>SUM('DV-km'!F7:F9)</f>
         <v>9947603</v>
       </c>
-      <c r="I4" s="387" t="s">
+      <c r="I4" s="390" t="s">
         <v>24</v>
       </c>
       <c r="J4" s="192">
@@ -55323,7 +55355,7 @@
         <v>13078638</v>
       </c>
       <c r="N4" s="44"/>
-      <c r="O4" s="386" t="s">
+      <c r="O4" s="402" t="s">
         <v>22</v>
       </c>
       <c r="P4" s="47" t="s">
@@ -55343,8 +55375,8 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="397"/>
-      <c r="B5" s="399"/>
+      <c r="A5" s="400"/>
+      <c r="B5" s="398"/>
       <c r="C5" s="70">
         <f>SUM('SYVbT_DV-Regis'!F10,'SYVbT_DV-Regis'!F24,'SYVbT_DV-Regis'!F36)</f>
         <v>1003047</v>
@@ -55354,7 +55386,7 @@
       <c r="F5" s="80"/>
       <c r="G5" s="49"/>
       <c r="H5" s="50"/>
-      <c r="I5" s="389"/>
+      <c r="I5" s="391"/>
       <c r="J5" s="193">
         <f>G8</f>
         <v>39.200000000000003</v>
@@ -55366,7 +55398,7 @@
       <c r="L5" s="94"/>
       <c r="M5" s="95"/>
       <c r="N5" s="44"/>
-      <c r="O5" s="386"/>
+      <c r="O5" s="402"/>
       <c r="P5" s="51" t="s">
         <v>180</v>
       </c>
@@ -55381,8 +55413,8 @@
       <c r="S5" s="53"/>
     </row>
     <row r="6" spans="1:19" ht="15" thickBot="1">
-      <c r="A6" s="397"/>
-      <c r="B6" s="399"/>
+      <c r="A6" s="400"/>
+      <c r="B6" s="398"/>
       <c r="C6" s="70">
         <f>SUM('SYVbT_DV-Regis'!F11,'SYVbT_DV-Regis'!F25,'SYVbT_DV-Regis'!F37)</f>
         <v>7024499</v>
@@ -55392,7 +55424,7 @@
       <c r="F6" s="80"/>
       <c r="G6" s="49"/>
       <c r="H6" s="50"/>
-      <c r="I6" s="388"/>
+      <c r="I6" s="392"/>
       <c r="J6" s="58">
         <f>'DV-km'!E14</f>
         <v>37.700000000000003</v>
@@ -55401,16 +55433,16 @@
         <f>SUM('SYVbT_DV-Regis'!F54:F55,'SYVbT_DV-Regis'!F60:F61)</f>
         <v>624320</v>
       </c>
-      <c r="L6" s="390" t="s">
+      <c r="L6" s="403" t="s">
         <v>213</v>
       </c>
-      <c r="M6" s="391"/>
+      <c r="M6" s="404"/>
       <c r="N6" s="54"/>
       <c r="O6" s="37"/>
     </row>
     <row r="7" spans="1:19" ht="15" thickBot="1">
-      <c r="A7" s="397"/>
-      <c r="B7" s="399"/>
+      <c r="A7" s="400"/>
+      <c r="B7" s="398"/>
       <c r="C7" s="72">
         <f>SUM('SYVbT_DV-Regis'!F12:F18,'SYVbT_DV-Regis'!F26:F32,'SYVbT_DV-Regis'!F38:F41)</f>
         <v>3550965</v>
@@ -55428,7 +55460,7 @@
         <f>'DV-km'!F10</f>
         <v>3550965</v>
       </c>
-      <c r="I7" s="387" t="s">
+      <c r="I7" s="390" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="88">
@@ -55448,7 +55480,7 @@
         <v>4977780</v>
       </c>
       <c r="N7" s="44"/>
-      <c r="O7" s="386" t="s">
+      <c r="O7" s="402" t="s">
         <v>22</v>
       </c>
       <c r="P7" s="47" t="s">
@@ -55468,8 +55500,8 @@
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="397"/>
-      <c r="B8" s="399" t="s">
+      <c r="A8" s="400"/>
+      <c r="B8" s="398" t="s">
         <v>34</v>
       </c>
       <c r="C8" s="68">
@@ -55495,7 +55527,7 @@
         <f>'DV-km'!F12</f>
         <v>3131035</v>
       </c>
-      <c r="I8" s="389"/>
+      <c r="I8" s="391"/>
       <c r="J8" s="55">
         <f>G9</f>
         <v>38.9</v>
@@ -55507,7 +55539,7 @@
       <c r="L8" s="94"/>
       <c r="M8" s="95"/>
       <c r="N8" s="54"/>
-      <c r="O8" s="386"/>
+      <c r="O8" s="402"/>
       <c r="P8" s="51" t="s">
         <v>182</v>
       </c>
@@ -55522,8 +55554,8 @@
       <c r="S8" s="53"/>
     </row>
     <row r="9" spans="1:19" ht="15" thickBot="1">
-      <c r="A9" s="397"/>
-      <c r="B9" s="399"/>
+      <c r="A9" s="400"/>
+      <c r="B9" s="398"/>
       <c r="C9" s="72">
         <f>SUM('SYVbT_DV-Regis'!F47:F50)</f>
         <v>1426815</v>
@@ -55541,7 +55573,7 @@
         <f>'DV-km'!F13</f>
         <v>1426815</v>
       </c>
-      <c r="I9" s="388"/>
+      <c r="I9" s="392"/>
       <c r="J9" s="58">
         <f>'DV-km'!E14</f>
         <v>37.700000000000003</v>
@@ -55550,15 +55582,15 @@
         <f>C10-K6</f>
         <v>496779</v>
       </c>
-      <c r="L9" s="392" t="s">
+      <c r="L9" s="405" t="s">
         <v>213</v>
       </c>
-      <c r="M9" s="393"/>
+      <c r="M9" s="406"/>
       <c r="N9" s="44"/>
       <c r="O9" s="37"/>
     </row>
     <row r="10" spans="1:19" ht="15" thickBot="1">
-      <c r="A10" s="398"/>
+      <c r="A10" s="401"/>
       <c r="B10" s="56" t="s">
         <v>206</v>
       </c>
@@ -55566,20 +55598,20 @@
         <f>'SYVbT_DV-Regis'!F53</f>
         <v>1121099</v>
       </c>
-      <c r="D10" s="405" t="s">
+      <c r="D10" s="386" t="s">
         <v>197</v>
       </c>
-      <c r="E10" s="406"/>
-      <c r="F10" s="406"/>
-      <c r="G10" s="406"/>
-      <c r="H10" s="407"/>
+      <c r="E10" s="387"/>
+      <c r="F10" s="387"/>
+      <c r="G10" s="387"/>
+      <c r="H10" s="388"/>
       <c r="I10" s="86"/>
       <c r="J10" s="87"/>
       <c r="K10" s="67"/>
       <c r="L10" s="58"/>
       <c r="M10" s="59"/>
       <c r="N10" s="44"/>
-      <c r="O10" s="386" t="s">
+      <c r="O10" s="402" t="s">
         <v>23</v>
       </c>
       <c r="P10" s="47" t="s">
@@ -55599,10 +55631,10 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="15" thickBot="1">
-      <c r="A11" s="396" t="s">
+      <c r="A11" s="399" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="400" t="s">
+      <c r="B11" s="397" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="68">
@@ -55628,7 +55660,7 @@
         <f>SUM('DV-km'!F17:F18)</f>
         <v>648435</v>
       </c>
-      <c r="I11" s="394" t="s">
+      <c r="I11" s="407" t="s">
         <v>24</v>
       </c>
       <c r="J11" s="60">
@@ -55648,7 +55680,7 @@
         <v>654958</v>
       </c>
       <c r="N11" s="44"/>
-      <c r="O11" s="386"/>
+      <c r="O11" s="402"/>
       <c r="P11" s="51" t="s">
         <v>184</v>
       </c>
@@ -55663,8 +55695,8 @@
       <c r="S11" s="53"/>
     </row>
     <row r="12" spans="1:19" ht="15" thickBot="1">
-      <c r="A12" s="397"/>
-      <c r="B12" s="399"/>
+      <c r="A12" s="400"/>
+      <c r="B12" s="398"/>
       <c r="C12" s="70">
         <f>SUM('SYVbT_DV-Regis'!F72:F73)</f>
         <v>26729</v>
@@ -55674,7 +55706,7 @@
       <c r="F12" s="80"/>
       <c r="G12" s="49"/>
       <c r="H12" s="50"/>
-      <c r="I12" s="395"/>
+      <c r="I12" s="408"/>
       <c r="J12" s="58">
         <f>J14</f>
         <v>28.2</v>
@@ -55688,8 +55720,8 @@
       <c r="O12" s="37"/>
     </row>
     <row r="13" spans="1:19" ht="15" thickBot="1">
-      <c r="A13" s="397"/>
-      <c r="B13" s="399"/>
+      <c r="A13" s="400"/>
+      <c r="B13" s="398"/>
       <c r="C13" s="72">
         <f>SUM('SYVbT_DV-Regis'!F64:F67,'SYVbT_DV-Regis'!F74:F75)</f>
         <v>128549</v>
@@ -55707,7 +55739,7 @@
         <f>'DV-km'!F19</f>
         <v>128549</v>
       </c>
-      <c r="I13" s="387" t="s">
+      <c r="I13" s="390" t="s">
         <v>25</v>
       </c>
       <c r="J13" s="45">
@@ -55727,7 +55759,7 @@
         <v>156841</v>
       </c>
       <c r="N13" s="44"/>
-      <c r="O13" s="386" t="s">
+      <c r="O13" s="402" t="s">
         <v>23</v>
       </c>
       <c r="P13" s="47" t="s">
@@ -55747,7 +55779,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="15" thickBot="1">
-      <c r="A14" s="398"/>
+      <c r="A14" s="401"/>
       <c r="B14" s="56" t="s">
         <v>207</v>
       </c>
@@ -55755,14 +55787,14 @@
         <f>'SYVbT_DV-Regis'!F76</f>
         <v>34815</v>
       </c>
-      <c r="D14" s="405" t="s">
+      <c r="D14" s="386" t="s">
         <v>197</v>
       </c>
-      <c r="E14" s="406"/>
-      <c r="F14" s="406"/>
-      <c r="G14" s="406"/>
-      <c r="H14" s="406"/>
-      <c r="I14" s="388"/>
+      <c r="E14" s="387"/>
+      <c r="F14" s="387"/>
+      <c r="G14" s="387"/>
+      <c r="H14" s="387"/>
+      <c r="I14" s="392"/>
       <c r="J14" s="58">
         <f>'DV-km'!E20</f>
         <v>28.2</v>
@@ -55774,7 +55806,7 @@
       <c r="L14" s="99"/>
       <c r="M14" s="100"/>
       <c r="N14" s="44"/>
-      <c r="O14" s="386"/>
+      <c r="O14" s="402"/>
       <c r="P14" s="51" t="s">
         <v>186</v>
       </c>
@@ -55789,10 +55821,10 @@
       <c r="S14" s="53"/>
     </row>
     <row r="15" spans="1:19" ht="15" thickBot="1">
-      <c r="A15" s="396" t="s">
+      <c r="A15" s="399" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="400" t="s">
+      <c r="B15" s="397" t="s">
         <v>205</v>
       </c>
       <c r="C15" s="68">
@@ -55818,7 +55850,7 @@
         <f>SUM('DV-km'!F23:F24)</f>
         <v>2394611</v>
       </c>
-      <c r="I15" s="387" t="s">
+      <c r="I15" s="390" t="s">
         <v>24</v>
       </c>
       <c r="J15" s="192">
@@ -55840,8 +55872,8 @@
       <c r="N15" s="44"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="397"/>
-      <c r="B16" s="399"/>
+      <c r="A16" s="400"/>
+      <c r="B16" s="398"/>
       <c r="C16" s="70">
         <f>SUM('SYVbT_DV-Regis'!F88:F89)</f>
         <v>305815</v>
@@ -55851,7 +55883,7 @@
       <c r="F16" s="80"/>
       <c r="G16" s="49"/>
       <c r="H16" s="189"/>
-      <c r="I16" s="389"/>
+      <c r="I16" s="391"/>
       <c r="J16" s="193">
         <f>G19</f>
         <v>19.212699077954735</v>
@@ -55865,8 +55897,8 @@
       <c r="N16" s="54"/>
     </row>
     <row r="17" spans="1:14" ht="15" thickBot="1">
-      <c r="A17" s="397"/>
-      <c r="B17" s="399"/>
+      <c r="A17" s="400"/>
+      <c r="B17" s="398"/>
       <c r="C17" s="72">
         <f>SUM('SYVbT_DV-Regis'!F90:F93)</f>
         <v>152987</v>
@@ -55884,7 +55916,7 @@
         <f>'DV-km'!F25</f>
         <v>152987</v>
       </c>
-      <c r="I17" s="388"/>
+      <c r="I17" s="392"/>
       <c r="J17" s="194">
         <f>G22</f>
         <v>41.465188882899014</v>
@@ -55898,8 +55930,8 @@
       <c r="N17" s="44"/>
     </row>
     <row r="18" spans="1:14" ht="15" thickBot="1">
-      <c r="A18" s="397"/>
-      <c r="B18" s="399" t="s">
+      <c r="A18" s="400"/>
+      <c r="B18" s="398" t="s">
         <v>208</v>
       </c>
       <c r="C18" s="68"/>
@@ -55908,7 +55940,7 @@
       <c r="F18" s="79"/>
       <c r="G18" s="45"/>
       <c r="H18" s="82"/>
-      <c r="I18" s="387" t="s">
+      <c r="I18" s="390" t="s">
         <v>25</v>
       </c>
       <c r="J18" s="88">
@@ -55930,8 +55962,8 @@
       <c r="N18" s="54"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="397"/>
-      <c r="B19" s="399"/>
+      <c r="A19" s="400"/>
+      <c r="B19" s="398"/>
       <c r="C19" s="70">
         <f>'SYVbT_DV-Regis'!F95</f>
         <v>32396</v>
@@ -55955,7 +55987,7 @@
         <f>SUM('DV-km'!F27:F28)</f>
         <v>47720</v>
       </c>
-      <c r="I19" s="389"/>
+      <c r="I19" s="391"/>
       <c r="J19" s="55">
         <f>G21</f>
         <v>19.3</v>
@@ -55969,8 +56001,8 @@
       <c r="N19" s="44"/>
     </row>
     <row r="20" spans="1:14" ht="15" thickBot="1">
-      <c r="A20" s="397"/>
-      <c r="B20" s="399"/>
+      <c r="A20" s="400"/>
+      <c r="B20" s="398"/>
       <c r="C20" s="70">
         <f>'SYVbT_DV-Regis'!F96</f>
         <v>15324</v>
@@ -55980,7 +56012,7 @@
       <c r="F20" s="80"/>
       <c r="G20" s="49"/>
       <c r="H20" s="189"/>
-      <c r="I20" s="388"/>
+      <c r="I20" s="392"/>
       <c r="J20" s="61">
         <f>G24</f>
         <v>65.099999999999994</v>
@@ -55994,8 +56026,8 @@
       <c r="N20" s="44"/>
     </row>
     <row r="21" spans="1:14" ht="15" thickBot="1">
-      <c r="A21" s="397"/>
-      <c r="B21" s="399"/>
+      <c r="A21" s="400"/>
+      <c r="B21" s="398"/>
       <c r="C21" s="72">
         <f>SUM('SYVbT_DV-Regis'!F97:F98)</f>
         <v>7348</v>
@@ -56021,8 +56053,8 @@
       <c r="N21" s="44"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="397"/>
-      <c r="B22" s="399" t="s">
+      <c r="A22" s="400"/>
+      <c r="B22" s="398" t="s">
         <v>209</v>
       </c>
       <c r="C22" s="68">
@@ -56056,8 +56088,8 @@
       <c r="N22" s="44"/>
     </row>
     <row r="23" spans="1:14" ht="15" thickBot="1">
-      <c r="A23" s="397"/>
-      <c r="B23" s="399"/>
+      <c r="A23" s="400"/>
+      <c r="B23" s="398"/>
       <c r="C23" s="72">
         <f>SUM('SYVbT_DV-Regis'!F101:F102)</f>
         <v>4174</v>
@@ -56075,7 +56107,7 @@
       <c r="N23" s="44"/>
     </row>
     <row r="24" spans="1:14" ht="15" thickBot="1">
-      <c r="A24" s="398"/>
+      <c r="A24" s="401"/>
       <c r="B24" s="56" t="s">
         <v>207</v>
       </c>
@@ -56083,11 +56115,11 @@
         <f>'SYVbT_DV-Regis'!F103</f>
         <v>568839</v>
       </c>
-      <c r="D24" s="405" t="s">
+      <c r="D24" s="386" t="s">
         <v>198</v>
       </c>
-      <c r="E24" s="406"/>
-      <c r="F24" s="407"/>
+      <c r="E24" s="387"/>
+      <c r="F24" s="388"/>
       <c r="G24" s="84">
         <f>'DV-km'!E33</f>
         <v>65.099999999999994</v>
@@ -56104,7 +56136,7 @@
       <c r="N24" s="54"/>
     </row>
     <row r="25" spans="1:14" ht="15" thickBot="1">
-      <c r="A25" s="396" t="s">
+      <c r="A25" s="399" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="76" t="s">
@@ -56149,7 +56181,7 @@
       <c r="N25" s="44"/>
     </row>
     <row r="26" spans="1:14" ht="15" thickBot="1">
-      <c r="A26" s="397"/>
+      <c r="A26" s="400"/>
       <c r="B26" s="77" t="s">
         <v>211</v>
       </c>
@@ -56170,7 +56202,7 @@
         <f>'DV-km'!F36</f>
         <v>12141</v>
       </c>
-      <c r="I26" s="387" t="s">
+      <c r="I26" s="390" t="s">
         <v>25</v>
       </c>
       <c r="J26" s="45">
@@ -56192,7 +56224,7 @@
       <c r="N26" s="44"/>
     </row>
     <row r="27" spans="1:14" ht="15" thickBot="1">
-      <c r="A27" s="398"/>
+      <c r="A27" s="401"/>
       <c r="B27" s="78" t="s">
         <v>212</v>
       </c>
@@ -56213,7 +56245,7 @@
         <f>'DV-km'!F37</f>
         <v>43975</v>
       </c>
-      <c r="I27" s="388"/>
+      <c r="I27" s="392"/>
       <c r="J27" s="58">
         <f>G27</f>
         <v>30.3</v>
@@ -56294,25 +56326,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A4:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="A15:A24"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A25:A27"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="O10:O11"/>
@@ -56324,6 +56337,25 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="I11:I12"/>
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="I13:I14"/>
   </mergeCells>
   <phoneticPr fontId="42" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -56337,7 +56369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8993FD09-2145-4D3A-BB3F-94BAC97490BB}">
   <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A28" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
@@ -57831,26 +57863,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="244" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A1" s="414" t="s">
+      <c r="A1" s="424" t="s">
         <v>889</v>
       </c>
-      <c r="B1" s="414"/>
-      <c r="C1" s="414"/>
-      <c r="D1" s="414"/>
-      <c r="E1" s="414"/>
-      <c r="F1" s="414"/>
-      <c r="G1" s="414"/>
-      <c r="H1" s="414"/>
-      <c r="I1" s="414" t="s">
+      <c r="B1" s="424"/>
+      <c r="C1" s="424"/>
+      <c r="D1" s="424"/>
+      <c r="E1" s="424"/>
+      <c r="F1" s="424"/>
+      <c r="G1" s="424"/>
+      <c r="H1" s="424"/>
+      <c r="I1" s="424" t="s">
         <v>890</v>
       </c>
-      <c r="J1" s="414"/>
-      <c r="K1" s="414"/>
-      <c r="L1" s="414"/>
-      <c r="M1" s="414"/>
-      <c r="N1" s="414"/>
-      <c r="O1" s="414"/>
-      <c r="P1" s="414"/>
+      <c r="J1" s="424"/>
+      <c r="K1" s="424"/>
+      <c r="L1" s="424"/>
+      <c r="M1" s="424"/>
+      <c r="N1" s="424"/>
+      <c r="O1" s="424"/>
+      <c r="P1" s="424"/>
     </row>
     <row r="2" spans="1:18" s="249" customFormat="1" ht="13.5" customHeight="1">
       <c r="A2" s="245"/>
@@ -57875,10 +57907,10 @@
       </c>
     </row>
     <row r="3" spans="1:18" s="252" customFormat="1" ht="34" customHeight="1">
-      <c r="A3" s="415" t="s">
+      <c r="A3" s="425" t="s">
         <v>893</v>
       </c>
-      <c r="B3" s="416"/>
+      <c r="B3" s="426"/>
       <c r="C3" s="250" t="s">
         <v>894</v>
       </c>
@@ -57897,10 +57929,10 @@
       <c r="H3" s="251" t="s">
         <v>899</v>
       </c>
-      <c r="I3" s="415" t="s">
+      <c r="I3" s="425" t="s">
         <v>900</v>
       </c>
-      <c r="J3" s="416"/>
+      <c r="J3" s="426"/>
       <c r="K3" s="250" t="s">
         <v>894</v>
       </c>
@@ -57921,7 +57953,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" s="252" customFormat="1" ht="13.4" hidden="1" customHeight="1">
-      <c r="A4" s="417">
+      <c r="A4" s="415">
         <v>2002</v>
       </c>
       <c r="B4" s="253" t="s">
@@ -57945,7 +57977,7 @@
       <c r="H4" s="255">
         <v>21248</v>
       </c>
-      <c r="I4" s="417">
+      <c r="I4" s="415">
         <v>2002</v>
       </c>
       <c r="J4" s="256" t="s">
@@ -57972,7 +58004,7 @@
       <c r="Q4" s="257"/>
     </row>
     <row r="5" spans="1:18" s="252" customFormat="1" ht="13.4" hidden="1" customHeight="1">
-      <c r="A5" s="418"/>
+      <c r="A5" s="416"/>
       <c r="B5" s="258" t="s">
         <v>903</v>
       </c>
@@ -57994,7 +58026,7 @@
       <c r="H5" s="260">
         <v>0.2</v>
       </c>
-      <c r="I5" s="420"/>
+      <c r="I5" s="422"/>
       <c r="J5" s="258" t="s">
         <v>903</v>
       </c>
@@ -58019,7 +58051,7 @@
       <c r="Q5" s="257"/>
     </row>
     <row r="6" spans="1:18" s="252" customFormat="1" ht="13.4" hidden="1" customHeight="1">
-      <c r="A6" s="419"/>
+      <c r="A6" s="417"/>
       <c r="B6" s="261" t="s">
         <v>904</v>
       </c>
@@ -58041,7 +58073,7 @@
       <c r="H6" s="263">
         <v>-2.6</v>
       </c>
-      <c r="I6" s="421"/>
+      <c r="I6" s="423"/>
       <c r="J6" s="261" t="s">
         <v>904</v>
       </c>
@@ -58066,7 +58098,7 @@
       <c r="Q6" s="257"/>
     </row>
     <row r="7" spans="1:18" s="252" customFormat="1" ht="13.15" hidden="1" customHeight="1">
-      <c r="A7" s="417">
+      <c r="A7" s="415">
         <v>2003</v>
       </c>
       <c r="B7" s="253" t="s">
@@ -58090,7 +58122,7 @@
       <c r="H7" s="265">
         <v>21380</v>
       </c>
-      <c r="I7" s="417">
+      <c r="I7" s="415">
         <v>2003</v>
       </c>
       <c r="J7" s="256" t="s">
@@ -58117,7 +58149,7 @@
       <c r="Q7" s="257"/>
     </row>
     <row r="8" spans="1:18" s="252" customFormat="1" ht="13.15" hidden="1" customHeight="1">
-      <c r="A8" s="420"/>
+      <c r="A8" s="422"/>
       <c r="B8" s="258" t="s">
         <v>903</v>
       </c>
@@ -58139,7 +58171,7 @@
       <c r="H8" s="267">
         <v>0.2</v>
       </c>
-      <c r="I8" s="420"/>
+      <c r="I8" s="422"/>
       <c r="J8" s="258" t="s">
         <v>903</v>
       </c>
@@ -58165,7 +58197,7 @@
       <c r="R8" s="268"/>
     </row>
     <row r="9" spans="1:18" s="252" customFormat="1" ht="13.15" hidden="1" customHeight="1">
-      <c r="A9" s="420"/>
+      <c r="A9" s="422"/>
       <c r="B9" s="261" t="s">
         <v>904</v>
       </c>
@@ -58187,7 +58219,7 @@
       <c r="H9" s="270">
         <v>0.6</v>
       </c>
-      <c r="I9" s="420"/>
+      <c r="I9" s="422"/>
       <c r="J9" s="261" t="s">
         <v>904</v>
       </c>
@@ -58213,7 +58245,7 @@
       <c r="R9" s="268"/>
     </row>
     <row r="10" spans="1:18" s="252" customFormat="1" ht="13.15" hidden="1" customHeight="1">
-      <c r="A10" s="417">
+      <c r="A10" s="415">
         <v>2004</v>
       </c>
       <c r="B10" s="253" t="s">
@@ -58237,7 +58269,7 @@
       <c r="H10" s="265">
         <v>18893</v>
       </c>
-      <c r="I10" s="417">
+      <c r="I10" s="415">
         <v>2004</v>
       </c>
       <c r="J10" s="256" t="s">
@@ -58265,7 +58297,7 @@
       <c r="R10" s="268"/>
     </row>
     <row r="11" spans="1:18" s="252" customFormat="1" ht="13.15" hidden="1" customHeight="1">
-      <c r="A11" s="418"/>
+      <c r="A11" s="416"/>
       <c r="B11" s="258" t="s">
         <v>903</v>
       </c>
@@ -58287,7 +58319,7 @@
       <c r="H11" s="267">
         <v>0.2</v>
       </c>
-      <c r="I11" s="420"/>
+      <c r="I11" s="422"/>
       <c r="J11" s="258" t="s">
         <v>903</v>
       </c>
@@ -58313,7 +58345,7 @@
       <c r="R11" s="268"/>
     </row>
     <row r="12" spans="1:18" s="252" customFormat="1" ht="13.15" hidden="1" customHeight="1">
-      <c r="A12" s="419"/>
+      <c r="A12" s="417"/>
       <c r="B12" s="261" t="s">
         <v>904</v>
       </c>
@@ -58335,7 +58367,7 @@
       <c r="H12" s="267">
         <v>-11.6</v>
       </c>
-      <c r="I12" s="421"/>
+      <c r="I12" s="423"/>
       <c r="J12" s="261" t="s">
         <v>904</v>
       </c>
@@ -58361,7 +58393,7 @@
       <c r="R12" s="268"/>
     </row>
     <row r="13" spans="1:18" s="252" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A13" s="417">
+      <c r="A13" s="415">
         <v>2006</v>
       </c>
       <c r="B13" s="253" t="s">
@@ -58385,7 +58417,7 @@
       <c r="H13" s="265">
         <v>17181</v>
       </c>
-      <c r="I13" s="417">
+      <c r="I13" s="415">
         <v>2006</v>
       </c>
       <c r="J13" s="256" t="s">
@@ -58413,7 +58445,7 @@
       <c r="R13" s="268"/>
     </row>
     <row r="14" spans="1:18" s="252" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A14" s="418"/>
+      <c r="A14" s="416"/>
       <c r="B14" s="258" t="s">
         <v>903</v>
       </c>
@@ -58435,7 +58467,7 @@
       <c r="H14" s="267">
         <v>0.1</v>
       </c>
-      <c r="I14" s="418"/>
+      <c r="I14" s="416"/>
       <c r="J14" s="258" t="s">
         <v>903</v>
       </c>
@@ -58461,7 +58493,7 @@
       <c r="R14" s="268"/>
     </row>
     <row r="15" spans="1:18" s="252" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A15" s="419"/>
+      <c r="A15" s="417"/>
       <c r="B15" s="261" t="s">
         <v>904</v>
       </c>
@@ -58483,7 +58515,7 @@
       <c r="H15" s="270">
         <v>0.1</v>
       </c>
-      <c r="I15" s="419"/>
+      <c r="I15" s="417"/>
       <c r="J15" s="261" t="s">
         <v>904</v>
       </c>
@@ -58509,7 +58541,7 @@
       <c r="R15" s="268"/>
     </row>
     <row r="16" spans="1:18" s="252" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A16" s="417">
+      <c r="A16" s="415">
         <v>2007</v>
       </c>
       <c r="B16" s="253" t="s">
@@ -58533,7 +58565,7 @@
       <c r="H16" s="265">
         <v>16848</v>
       </c>
-      <c r="I16" s="417">
+      <c r="I16" s="415">
         <v>2007</v>
       </c>
       <c r="J16" s="256" t="s">
@@ -58561,7 +58593,7 @@
       <c r="R16" s="268"/>
     </row>
     <row r="17" spans="1:219" s="252" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A17" s="418"/>
+      <c r="A17" s="416"/>
       <c r="B17" s="258" t="s">
         <v>903</v>
       </c>
@@ -58583,7 +58615,7 @@
       <c r="H17" s="267">
         <v>0.1</v>
       </c>
-      <c r="I17" s="418"/>
+      <c r="I17" s="416"/>
       <c r="J17" s="258" t="s">
         <v>903</v>
       </c>
@@ -58609,7 +58641,7 @@
       <c r="R17" s="268"/>
     </row>
     <row r="18" spans="1:219" s="252" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A18" s="419"/>
+      <c r="A18" s="417"/>
       <c r="B18" s="261" t="s">
         <v>904</v>
       </c>
@@ -58631,7 +58663,7 @@
       <c r="H18" s="270">
         <v>-1.9</v>
       </c>
-      <c r="I18" s="419"/>
+      <c r="I18" s="417"/>
       <c r="J18" s="261" t="s">
         <v>904</v>
       </c>
@@ -58657,7 +58689,7 @@
       <c r="R18" s="268"/>
     </row>
     <row r="19" spans="1:219" s="252" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A19" s="417">
+      <c r="A19" s="415">
         <v>2008</v>
       </c>
       <c r="B19" s="253" t="s">
@@ -58681,7 +58713,7 @@
       <c r="H19" s="265">
         <v>16990</v>
       </c>
-      <c r="I19" s="417">
+      <c r="I19" s="415">
         <v>2008</v>
       </c>
       <c r="J19" s="256" t="s">
@@ -58709,7 +58741,7 @@
       <c r="R19" s="268"/>
     </row>
     <row r="20" spans="1:219" s="252" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A20" s="418"/>
+      <c r="A20" s="416"/>
       <c r="B20" s="258" t="s">
         <v>903</v>
       </c>
@@ -58731,7 +58763,7 @@
       <c r="H20" s="267">
         <v>0.1</v>
       </c>
-      <c r="I20" s="418"/>
+      <c r="I20" s="416"/>
       <c r="J20" s="258" t="s">
         <v>903</v>
       </c>
@@ -58757,7 +58789,7 @@
       <c r="R20" s="268"/>
     </row>
     <row r="21" spans="1:219" s="252" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A21" s="419"/>
+      <c r="A21" s="417"/>
       <c r="B21" s="261" t="s">
         <v>904</v>
       </c>
@@ -58779,7 +58811,7 @@
       <c r="H21" s="267">
         <v>0.8</v>
       </c>
-      <c r="I21" s="419"/>
+      <c r="I21" s="417"/>
       <c r="J21" s="258" t="s">
         <v>904</v>
       </c>
@@ -58805,7 +58837,7 @@
       <c r="R21" s="268"/>
     </row>
     <row r="22" spans="1:219" s="252" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A22" s="417">
+      <c r="A22" s="415">
         <v>2009</v>
       </c>
       <c r="B22" s="253" t="s">
@@ -58829,7 +58861,7 @@
       <c r="H22" s="265">
         <v>18061</v>
       </c>
-      <c r="I22" s="417">
+      <c r="I22" s="415">
         <v>2009</v>
       </c>
       <c r="J22" s="256" t="s">
@@ -58857,7 +58889,7 @@
       <c r="R22" s="268"/>
     </row>
     <row r="23" spans="1:219" s="252" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A23" s="418"/>
+      <c r="A23" s="416"/>
       <c r="B23" s="258" t="s">
         <v>903</v>
       </c>
@@ -58879,7 +58911,7 @@
       <c r="H23" s="267">
         <v>0.1</v>
       </c>
-      <c r="I23" s="418"/>
+      <c r="I23" s="416"/>
       <c r="J23" s="258" t="s">
         <v>903</v>
       </c>
@@ -58905,7 +58937,7 @@
       <c r="R23" s="268"/>
     </row>
     <row r="24" spans="1:219" s="274" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A24" s="419"/>
+      <c r="A24" s="417"/>
       <c r="B24" s="258" t="s">
         <v>904</v>
       </c>
@@ -58927,7 +58959,7 @@
       <c r="H24" s="267">
         <v>6.3</v>
       </c>
-      <c r="I24" s="419"/>
+      <c r="I24" s="417"/>
       <c r="J24" s="258" t="s">
         <v>904</v>
       </c>
@@ -58953,7 +58985,7 @@
       <c r="R24" s="273"/>
     </row>
     <row r="25" spans="1:219" s="275" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A25" s="417">
+      <c r="A25" s="415">
         <v>2010</v>
       </c>
       <c r="B25" s="253" t="s">
@@ -58977,7 +59009,7 @@
       <c r="H25" s="265">
         <v>20216</v>
       </c>
-      <c r="I25" s="417">
+      <c r="I25" s="415">
         <v>2010</v>
       </c>
       <c r="J25" s="256" t="s">
@@ -59004,7 +59036,7 @@
       <c r="R25" s="276"/>
     </row>
     <row r="26" spans="1:219" s="278" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A26" s="418"/>
+      <c r="A26" s="416"/>
       <c r="B26" s="258" t="s">
         <v>903</v>
       </c>
@@ -59026,7 +59058,7 @@
       <c r="H26" s="267">
         <v>0.2</v>
       </c>
-      <c r="I26" s="418"/>
+      <c r="I26" s="416"/>
       <c r="J26" s="258" t="s">
         <v>903</v>
       </c>
@@ -59052,7 +59084,7 @@
       <c r="R26" s="277"/>
     </row>
     <row r="27" spans="1:219" s="278" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A27" s="419"/>
+      <c r="A27" s="417"/>
       <c r="B27" s="261" t="s">
         <v>904</v>
       </c>
@@ -59074,7 +59106,7 @@
       <c r="H27" s="267">
         <v>11.9</v>
       </c>
-      <c r="I27" s="419"/>
+      <c r="I27" s="417"/>
       <c r="J27" s="261" t="s">
         <v>904</v>
       </c>
@@ -59100,7 +59132,7 @@
       <c r="R27" s="277"/>
     </row>
     <row r="28" spans="1:219" s="278" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A28" s="417">
+      <c r="A28" s="415">
         <v>2011</v>
       </c>
       <c r="B28" s="258" t="s">
@@ -59124,7 +59156,7 @@
       <c r="H28" s="265">
         <v>20981</v>
       </c>
-      <c r="I28" s="417">
+      <c r="I28" s="415">
         <v>2011</v>
       </c>
       <c r="J28" s="256" t="s">
@@ -59151,7 +59183,7 @@
       <c r="Q28" s="275"/>
       <c r="R28" s="257"/>
       <c r="S28" s="257"/>
-      <c r="T28" s="422"/>
+      <c r="T28" s="420"/>
       <c r="U28" s="279"/>
       <c r="V28" s="280"/>
       <c r="W28" s="257"/>
@@ -59159,7 +59191,7 @@
       <c r="Y28" s="257"/>
       <c r="Z28" s="257"/>
       <c r="AA28" s="257"/>
-      <c r="AB28" s="422"/>
+      <c r="AB28" s="420"/>
       <c r="AC28" s="281"/>
       <c r="AD28" s="280"/>
       <c r="AE28" s="257"/>
@@ -59167,7 +59199,7 @@
       <c r="AG28" s="257"/>
       <c r="AH28" s="257"/>
       <c r="AI28" s="257"/>
-      <c r="AJ28" s="422"/>
+      <c r="AJ28" s="420"/>
       <c r="AK28" s="279"/>
       <c r="AL28" s="280"/>
       <c r="AM28" s="257"/>
@@ -59175,7 +59207,7 @@
       <c r="AO28" s="257"/>
       <c r="AP28" s="257"/>
       <c r="AQ28" s="257"/>
-      <c r="AR28" s="422"/>
+      <c r="AR28" s="420"/>
       <c r="AS28" s="281"/>
       <c r="AT28" s="280"/>
       <c r="AU28" s="257"/>
@@ -59183,7 +59215,7 @@
       <c r="AW28" s="257"/>
       <c r="AX28" s="257"/>
       <c r="AY28" s="257"/>
-      <c r="AZ28" s="422"/>
+      <c r="AZ28" s="420"/>
       <c r="BA28" s="279"/>
       <c r="BB28" s="280"/>
       <c r="BC28" s="257"/>
@@ -59191,7 +59223,7 @@
       <c r="BE28" s="257"/>
       <c r="BF28" s="257"/>
       <c r="BG28" s="257"/>
-      <c r="BH28" s="422"/>
+      <c r="BH28" s="420"/>
       <c r="BI28" s="281"/>
       <c r="BJ28" s="280"/>
       <c r="BK28" s="257"/>
@@ -59199,7 +59231,7 @@
       <c r="BM28" s="257"/>
       <c r="BN28" s="257"/>
       <c r="BO28" s="257"/>
-      <c r="BP28" s="422"/>
+      <c r="BP28" s="420"/>
       <c r="BQ28" s="279"/>
       <c r="BR28" s="280"/>
       <c r="BS28" s="257"/>
@@ -59207,7 +59239,7 @@
       <c r="BU28" s="257"/>
       <c r="BV28" s="257"/>
       <c r="BW28" s="257"/>
-      <c r="BX28" s="422"/>
+      <c r="BX28" s="420"/>
       <c r="BY28" s="281"/>
       <c r="BZ28" s="280"/>
       <c r="CA28" s="257"/>
@@ -59215,7 +59247,7 @@
       <c r="CC28" s="257"/>
       <c r="CD28" s="257"/>
       <c r="CE28" s="257"/>
-      <c r="CF28" s="422"/>
+      <c r="CF28" s="420"/>
       <c r="CG28" s="279"/>
       <c r="CH28" s="280"/>
       <c r="CI28" s="257"/>
@@ -59223,7 +59255,7 @@
       <c r="CK28" s="257"/>
       <c r="CL28" s="257"/>
       <c r="CM28" s="257"/>
-      <c r="CN28" s="422"/>
+      <c r="CN28" s="420"/>
       <c r="CO28" s="281"/>
       <c r="CP28" s="280"/>
       <c r="CQ28" s="257"/>
@@ -59231,7 +59263,7 @@
       <c r="CS28" s="257"/>
       <c r="CT28" s="257"/>
       <c r="CU28" s="257"/>
-      <c r="CV28" s="422"/>
+      <c r="CV28" s="420"/>
       <c r="CW28" s="279"/>
       <c r="CX28" s="280"/>
       <c r="CY28" s="257"/>
@@ -59239,7 +59271,7 @@
       <c r="DA28" s="257"/>
       <c r="DB28" s="257"/>
       <c r="DC28" s="257"/>
-      <c r="DD28" s="422"/>
+      <c r="DD28" s="420"/>
       <c r="DE28" s="281"/>
       <c r="DF28" s="280"/>
       <c r="DG28" s="257"/>
@@ -59247,7 +59279,7 @@
       <c r="DI28" s="257"/>
       <c r="DJ28" s="257"/>
       <c r="DK28" s="257"/>
-      <c r="DL28" s="422"/>
+      <c r="DL28" s="420"/>
       <c r="DM28" s="279"/>
       <c r="DN28" s="280"/>
       <c r="DO28" s="257"/>
@@ -59255,7 +59287,7 @@
       <c r="DQ28" s="257"/>
       <c r="DR28" s="257"/>
       <c r="DS28" s="257"/>
-      <c r="DT28" s="422"/>
+      <c r="DT28" s="420"/>
       <c r="DU28" s="281"/>
       <c r="DV28" s="280"/>
       <c r="DW28" s="257"/>
@@ -59263,7 +59295,7 @@
       <c r="DY28" s="257"/>
       <c r="DZ28" s="257"/>
       <c r="EA28" s="257"/>
-      <c r="EB28" s="422"/>
+      <c r="EB28" s="420"/>
       <c r="EC28" s="279"/>
       <c r="ED28" s="280"/>
       <c r="EE28" s="257"/>
@@ -59271,7 +59303,7 @@
       <c r="EG28" s="257"/>
       <c r="EH28" s="257"/>
       <c r="EI28" s="257"/>
-      <c r="EJ28" s="422"/>
+      <c r="EJ28" s="420"/>
       <c r="EK28" s="281"/>
       <c r="EL28" s="280"/>
       <c r="EM28" s="257"/>
@@ -59279,7 +59311,7 @@
       <c r="EO28" s="257"/>
       <c r="EP28" s="257"/>
       <c r="EQ28" s="257"/>
-      <c r="ER28" s="422"/>
+      <c r="ER28" s="420"/>
       <c r="ES28" s="279"/>
       <c r="ET28" s="280"/>
       <c r="EU28" s="257"/>
@@ -59287,7 +59319,7 @@
       <c r="EW28" s="257"/>
       <c r="EX28" s="257"/>
       <c r="EY28" s="257"/>
-      <c r="EZ28" s="422"/>
+      <c r="EZ28" s="420"/>
       <c r="FA28" s="281"/>
       <c r="FB28" s="280"/>
       <c r="FC28" s="257"/>
@@ -59295,7 +59327,7 @@
       <c r="FE28" s="257"/>
       <c r="FF28" s="257"/>
       <c r="FG28" s="257"/>
-      <c r="FH28" s="422"/>
+      <c r="FH28" s="420"/>
       <c r="FI28" s="279"/>
       <c r="FJ28" s="280"/>
       <c r="FK28" s="257"/>
@@ -59303,7 +59335,7 @@
       <c r="FM28" s="257"/>
       <c r="FN28" s="257"/>
       <c r="FO28" s="257"/>
-      <c r="FP28" s="422"/>
+      <c r="FP28" s="420"/>
       <c r="FQ28" s="281"/>
       <c r="FR28" s="280"/>
       <c r="FS28" s="257"/>
@@ -59311,7 +59343,7 @@
       <c r="FU28" s="257"/>
       <c r="FV28" s="257"/>
       <c r="FW28" s="257"/>
-      <c r="FX28" s="422"/>
+      <c r="FX28" s="420"/>
       <c r="FY28" s="279"/>
       <c r="FZ28" s="280"/>
       <c r="GA28" s="257"/>
@@ -59319,7 +59351,7 @@
       <c r="GC28" s="257"/>
       <c r="GD28" s="257"/>
       <c r="GE28" s="257"/>
-      <c r="GF28" s="422"/>
+      <c r="GF28" s="420"/>
       <c r="GG28" s="281"/>
       <c r="GH28" s="280"/>
       <c r="GI28" s="257"/>
@@ -59327,7 +59359,7 @@
       <c r="GK28" s="257"/>
       <c r="GL28" s="257"/>
       <c r="GM28" s="257"/>
-      <c r="GN28" s="422"/>
+      <c r="GN28" s="420"/>
       <c r="GO28" s="279"/>
       <c r="GP28" s="280"/>
       <c r="GQ28" s="257"/>
@@ -59335,7 +59367,7 @@
       <c r="GS28" s="257"/>
       <c r="GT28" s="257"/>
       <c r="GU28" s="257"/>
-      <c r="GV28" s="422"/>
+      <c r="GV28" s="420"/>
       <c r="GW28" s="281"/>
       <c r="GX28" s="280"/>
       <c r="GY28" s="257"/>
@@ -59343,7 +59375,7 @@
       <c r="HA28" s="257"/>
       <c r="HB28" s="257"/>
       <c r="HC28" s="257"/>
-      <c r="HD28" s="422"/>
+      <c r="HD28" s="420"/>
       <c r="HE28" s="279"/>
       <c r="HF28" s="280"/>
       <c r="HG28" s="257"/>
@@ -59353,7 +59385,7 @@
       <c r="HK28" s="257"/>
     </row>
     <row r="29" spans="1:219" s="278" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A29" s="418"/>
+      <c r="A29" s="416"/>
       <c r="B29" s="258" t="s">
         <v>903</v>
       </c>
@@ -59375,7 +59407,7 @@
       <c r="H29" s="267">
         <v>0.1</v>
       </c>
-      <c r="I29" s="418"/>
+      <c r="I29" s="416"/>
       <c r="J29" s="258" t="s">
         <v>903</v>
       </c>
@@ -59400,7 +59432,7 @@
       <c r="Q29" s="275"/>
       <c r="R29" s="282"/>
       <c r="S29" s="282"/>
-      <c r="T29" s="423"/>
+      <c r="T29" s="421"/>
       <c r="U29" s="281"/>
       <c r="V29" s="280"/>
       <c r="W29" s="282"/>
@@ -59408,7 +59440,7 @@
       <c r="Y29" s="282"/>
       <c r="Z29" s="282"/>
       <c r="AA29" s="282"/>
-      <c r="AB29" s="423"/>
+      <c r="AB29" s="421"/>
       <c r="AC29" s="281"/>
       <c r="AD29" s="280"/>
       <c r="AE29" s="282"/>
@@ -59416,7 +59448,7 @@
       <c r="AG29" s="282"/>
       <c r="AH29" s="282"/>
       <c r="AI29" s="282"/>
-      <c r="AJ29" s="423"/>
+      <c r="AJ29" s="421"/>
       <c r="AK29" s="281"/>
       <c r="AL29" s="280"/>
       <c r="AM29" s="282"/>
@@ -59424,7 +59456,7 @@
       <c r="AO29" s="282"/>
       <c r="AP29" s="282"/>
       <c r="AQ29" s="282"/>
-      <c r="AR29" s="423"/>
+      <c r="AR29" s="421"/>
       <c r="AS29" s="281"/>
       <c r="AT29" s="280"/>
       <c r="AU29" s="282"/>
@@ -59432,7 +59464,7 @@
       <c r="AW29" s="282"/>
       <c r="AX29" s="282"/>
       <c r="AY29" s="282"/>
-      <c r="AZ29" s="423"/>
+      <c r="AZ29" s="421"/>
       <c r="BA29" s="281"/>
       <c r="BB29" s="280"/>
       <c r="BC29" s="282"/>
@@ -59440,7 +59472,7 @@
       <c r="BE29" s="282"/>
       <c r="BF29" s="282"/>
       <c r="BG29" s="282"/>
-      <c r="BH29" s="423"/>
+      <c r="BH29" s="421"/>
       <c r="BI29" s="281"/>
       <c r="BJ29" s="280"/>
       <c r="BK29" s="282"/>
@@ -59448,7 +59480,7 @@
       <c r="BM29" s="282"/>
       <c r="BN29" s="282"/>
       <c r="BO29" s="282"/>
-      <c r="BP29" s="423"/>
+      <c r="BP29" s="421"/>
       <c r="BQ29" s="281"/>
       <c r="BR29" s="280"/>
       <c r="BS29" s="282"/>
@@ -59456,7 +59488,7 @@
       <c r="BU29" s="282"/>
       <c r="BV29" s="282"/>
       <c r="BW29" s="282"/>
-      <c r="BX29" s="423"/>
+      <c r="BX29" s="421"/>
       <c r="BY29" s="281"/>
       <c r="BZ29" s="280"/>
       <c r="CA29" s="282"/>
@@ -59464,7 +59496,7 @@
       <c r="CC29" s="282"/>
       <c r="CD29" s="282"/>
       <c r="CE29" s="282"/>
-      <c r="CF29" s="423"/>
+      <c r="CF29" s="421"/>
       <c r="CG29" s="281"/>
       <c r="CH29" s="280"/>
       <c r="CI29" s="282"/>
@@ -59472,7 +59504,7 @@
       <c r="CK29" s="282"/>
       <c r="CL29" s="282"/>
       <c r="CM29" s="282"/>
-      <c r="CN29" s="423"/>
+      <c r="CN29" s="421"/>
       <c r="CO29" s="281"/>
       <c r="CP29" s="280"/>
       <c r="CQ29" s="282"/>
@@ -59480,7 +59512,7 @@
       <c r="CS29" s="282"/>
       <c r="CT29" s="282"/>
       <c r="CU29" s="282"/>
-      <c r="CV29" s="423"/>
+      <c r="CV29" s="421"/>
       <c r="CW29" s="281"/>
       <c r="CX29" s="280"/>
       <c r="CY29" s="282"/>
@@ -59488,7 +59520,7 @@
       <c r="DA29" s="282"/>
       <c r="DB29" s="282"/>
       <c r="DC29" s="282"/>
-      <c r="DD29" s="423"/>
+      <c r="DD29" s="421"/>
       <c r="DE29" s="281"/>
       <c r="DF29" s="280"/>
       <c r="DG29" s="282"/>
@@ -59496,7 +59528,7 @@
       <c r="DI29" s="282"/>
       <c r="DJ29" s="282"/>
       <c r="DK29" s="282"/>
-      <c r="DL29" s="423"/>
+      <c r="DL29" s="421"/>
       <c r="DM29" s="281"/>
       <c r="DN29" s="280"/>
       <c r="DO29" s="282"/>
@@ -59504,7 +59536,7 @@
       <c r="DQ29" s="282"/>
       <c r="DR29" s="282"/>
       <c r="DS29" s="282"/>
-      <c r="DT29" s="423"/>
+      <c r="DT29" s="421"/>
       <c r="DU29" s="281"/>
       <c r="DV29" s="280"/>
       <c r="DW29" s="282"/>
@@ -59512,7 +59544,7 @@
       <c r="DY29" s="282"/>
       <c r="DZ29" s="282"/>
       <c r="EA29" s="282"/>
-      <c r="EB29" s="423"/>
+      <c r="EB29" s="421"/>
       <c r="EC29" s="281"/>
       <c r="ED29" s="280"/>
       <c r="EE29" s="282"/>
@@ -59520,7 +59552,7 @@
       <c r="EG29" s="282"/>
       <c r="EH29" s="282"/>
       <c r="EI29" s="282"/>
-      <c r="EJ29" s="423"/>
+      <c r="EJ29" s="421"/>
       <c r="EK29" s="281"/>
       <c r="EL29" s="280"/>
       <c r="EM29" s="282"/>
@@ -59528,7 +59560,7 @@
       <c r="EO29" s="282"/>
       <c r="EP29" s="282"/>
       <c r="EQ29" s="282"/>
-      <c r="ER29" s="423"/>
+      <c r="ER29" s="421"/>
       <c r="ES29" s="281"/>
       <c r="ET29" s="280"/>
       <c r="EU29" s="282"/>
@@ -59536,7 +59568,7 @@
       <c r="EW29" s="282"/>
       <c r="EX29" s="282"/>
       <c r="EY29" s="282"/>
-      <c r="EZ29" s="423"/>
+      <c r="EZ29" s="421"/>
       <c r="FA29" s="281"/>
       <c r="FB29" s="280"/>
       <c r="FC29" s="282"/>
@@ -59544,7 +59576,7 @@
       <c r="FE29" s="282"/>
       <c r="FF29" s="282"/>
       <c r="FG29" s="282"/>
-      <c r="FH29" s="423"/>
+      <c r="FH29" s="421"/>
       <c r="FI29" s="281"/>
       <c r="FJ29" s="280"/>
       <c r="FK29" s="282"/>
@@ -59552,7 +59584,7 @@
       <c r="FM29" s="282"/>
       <c r="FN29" s="282"/>
       <c r="FO29" s="282"/>
-      <c r="FP29" s="423"/>
+      <c r="FP29" s="421"/>
       <c r="FQ29" s="281"/>
       <c r="FR29" s="280"/>
       <c r="FS29" s="282"/>
@@ -59560,7 +59592,7 @@
       <c r="FU29" s="282"/>
       <c r="FV29" s="282"/>
       <c r="FW29" s="282"/>
-      <c r="FX29" s="423"/>
+      <c r="FX29" s="421"/>
       <c r="FY29" s="281"/>
       <c r="FZ29" s="280"/>
       <c r="GA29" s="282"/>
@@ -59568,7 +59600,7 @@
       <c r="GC29" s="282"/>
       <c r="GD29" s="282"/>
       <c r="GE29" s="282"/>
-      <c r="GF29" s="423"/>
+      <c r="GF29" s="421"/>
       <c r="GG29" s="281"/>
       <c r="GH29" s="280"/>
       <c r="GI29" s="282"/>
@@ -59576,7 +59608,7 @@
       <c r="GK29" s="282"/>
       <c r="GL29" s="282"/>
       <c r="GM29" s="282"/>
-      <c r="GN29" s="423"/>
+      <c r="GN29" s="421"/>
       <c r="GO29" s="281"/>
       <c r="GP29" s="280"/>
       <c r="GQ29" s="282"/>
@@ -59584,7 +59616,7 @@
       <c r="GS29" s="282"/>
       <c r="GT29" s="282"/>
       <c r="GU29" s="282"/>
-      <c r="GV29" s="423"/>
+      <c r="GV29" s="421"/>
       <c r="GW29" s="281"/>
       <c r="GX29" s="280"/>
       <c r="GY29" s="282"/>
@@ -59592,7 +59624,7 @@
       <c r="HA29" s="282"/>
       <c r="HB29" s="282"/>
       <c r="HC29" s="282"/>
-      <c r="HD29" s="423"/>
+      <c r="HD29" s="421"/>
       <c r="HE29" s="281"/>
       <c r="HF29" s="280"/>
       <c r="HG29" s="282"/>
@@ -59602,7 +59634,7 @@
       <c r="HK29" s="282"/>
     </row>
     <row r="30" spans="1:219" s="278" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A30" s="419"/>
+      <c r="A30" s="417"/>
       <c r="B30" s="261" t="s">
         <v>904</v>
       </c>
@@ -59624,7 +59656,7 @@
       <c r="H30" s="267">
         <v>3.8</v>
       </c>
-      <c r="I30" s="419"/>
+      <c r="I30" s="417"/>
       <c r="J30" s="261" t="s">
         <v>904</v>
       </c>
@@ -59649,7 +59681,7 @@
       <c r="Q30" s="275"/>
       <c r="R30" s="283"/>
       <c r="S30" s="283"/>
-      <c r="T30" s="423"/>
+      <c r="T30" s="421"/>
       <c r="U30" s="281"/>
       <c r="V30" s="283"/>
       <c r="W30" s="283"/>
@@ -59657,7 +59689,7 @@
       <c r="Y30" s="283"/>
       <c r="Z30" s="283"/>
       <c r="AA30" s="283"/>
-      <c r="AB30" s="423"/>
+      <c r="AB30" s="421"/>
       <c r="AC30" s="281"/>
       <c r="AD30" s="283"/>
       <c r="AE30" s="283"/>
@@ -59665,7 +59697,7 @@
       <c r="AG30" s="283"/>
       <c r="AH30" s="283"/>
       <c r="AI30" s="283"/>
-      <c r="AJ30" s="423"/>
+      <c r="AJ30" s="421"/>
       <c r="AK30" s="281"/>
       <c r="AL30" s="283"/>
       <c r="AM30" s="283"/>
@@ -59673,7 +59705,7 @@
       <c r="AO30" s="283"/>
       <c r="AP30" s="283"/>
       <c r="AQ30" s="283"/>
-      <c r="AR30" s="423"/>
+      <c r="AR30" s="421"/>
       <c r="AS30" s="281"/>
       <c r="AT30" s="283"/>
       <c r="AU30" s="283"/>
@@ -59681,7 +59713,7 @@
       <c r="AW30" s="283"/>
       <c r="AX30" s="283"/>
       <c r="AY30" s="283"/>
-      <c r="AZ30" s="423"/>
+      <c r="AZ30" s="421"/>
       <c r="BA30" s="281"/>
       <c r="BB30" s="283"/>
       <c r="BC30" s="283"/>
@@ -59689,7 +59721,7 @@
       <c r="BE30" s="283"/>
       <c r="BF30" s="283"/>
       <c r="BG30" s="283"/>
-      <c r="BH30" s="423"/>
+      <c r="BH30" s="421"/>
       <c r="BI30" s="281"/>
       <c r="BJ30" s="283"/>
       <c r="BK30" s="283"/>
@@ -59697,7 +59729,7 @@
       <c r="BM30" s="283"/>
       <c r="BN30" s="283"/>
       <c r="BO30" s="283"/>
-      <c r="BP30" s="423"/>
+      <c r="BP30" s="421"/>
       <c r="BQ30" s="281"/>
       <c r="BR30" s="283"/>
       <c r="BS30" s="283"/>
@@ -59705,7 +59737,7 @@
       <c r="BU30" s="283"/>
       <c r="BV30" s="283"/>
       <c r="BW30" s="283"/>
-      <c r="BX30" s="423"/>
+      <c r="BX30" s="421"/>
       <c r="BY30" s="281"/>
       <c r="BZ30" s="283"/>
       <c r="CA30" s="283"/>
@@ -59713,7 +59745,7 @@
       <c r="CC30" s="283"/>
       <c r="CD30" s="283"/>
       <c r="CE30" s="283"/>
-      <c r="CF30" s="423"/>
+      <c r="CF30" s="421"/>
       <c r="CG30" s="281"/>
       <c r="CH30" s="283"/>
       <c r="CI30" s="283"/>
@@ -59721,7 +59753,7 @@
       <c r="CK30" s="283"/>
       <c r="CL30" s="283"/>
       <c r="CM30" s="283"/>
-      <c r="CN30" s="423"/>
+      <c r="CN30" s="421"/>
       <c r="CO30" s="281"/>
       <c r="CP30" s="283"/>
       <c r="CQ30" s="283"/>
@@ -59729,7 +59761,7 @@
       <c r="CS30" s="283"/>
       <c r="CT30" s="283"/>
       <c r="CU30" s="283"/>
-      <c r="CV30" s="423"/>
+      <c r="CV30" s="421"/>
       <c r="CW30" s="281"/>
       <c r="CX30" s="283"/>
       <c r="CY30" s="283"/>
@@ -59737,7 +59769,7 @@
       <c r="DA30" s="283"/>
       <c r="DB30" s="283"/>
       <c r="DC30" s="283"/>
-      <c r="DD30" s="423"/>
+      <c r="DD30" s="421"/>
       <c r="DE30" s="281"/>
       <c r="DF30" s="283"/>
       <c r="DG30" s="283"/>
@@ -59745,7 +59777,7 @@
       <c r="DI30" s="283"/>
       <c r="DJ30" s="283"/>
       <c r="DK30" s="283"/>
-      <c r="DL30" s="423"/>
+      <c r="DL30" s="421"/>
       <c r="DM30" s="281"/>
       <c r="DN30" s="283"/>
       <c r="DO30" s="283"/>
@@ -59753,7 +59785,7 @@
       <c r="DQ30" s="283"/>
       <c r="DR30" s="283"/>
       <c r="DS30" s="283"/>
-      <c r="DT30" s="423"/>
+      <c r="DT30" s="421"/>
       <c r="DU30" s="281"/>
       <c r="DV30" s="283"/>
       <c r="DW30" s="283"/>
@@ -59761,7 +59793,7 @@
       <c r="DY30" s="283"/>
       <c r="DZ30" s="283"/>
       <c r="EA30" s="283"/>
-      <c r="EB30" s="423"/>
+      <c r="EB30" s="421"/>
       <c r="EC30" s="281"/>
       <c r="ED30" s="283"/>
       <c r="EE30" s="283"/>
@@ -59769,7 +59801,7 @@
       <c r="EG30" s="283"/>
       <c r="EH30" s="283"/>
       <c r="EI30" s="283"/>
-      <c r="EJ30" s="423"/>
+      <c r="EJ30" s="421"/>
       <c r="EK30" s="281"/>
       <c r="EL30" s="283"/>
       <c r="EM30" s="283"/>
@@ -59777,7 +59809,7 @@
       <c r="EO30" s="283"/>
       <c r="EP30" s="283"/>
       <c r="EQ30" s="283"/>
-      <c r="ER30" s="423"/>
+      <c r="ER30" s="421"/>
       <c r="ES30" s="281"/>
       <c r="ET30" s="283"/>
       <c r="EU30" s="283"/>
@@ -59785,7 +59817,7 @@
       <c r="EW30" s="283"/>
       <c r="EX30" s="283"/>
       <c r="EY30" s="283"/>
-      <c r="EZ30" s="423"/>
+      <c r="EZ30" s="421"/>
       <c r="FA30" s="281"/>
       <c r="FB30" s="283"/>
       <c r="FC30" s="283"/>
@@ -59793,7 +59825,7 @@
       <c r="FE30" s="283"/>
       <c r="FF30" s="283"/>
       <c r="FG30" s="283"/>
-      <c r="FH30" s="423"/>
+      <c r="FH30" s="421"/>
       <c r="FI30" s="281"/>
       <c r="FJ30" s="283"/>
       <c r="FK30" s="283"/>
@@ -59801,7 +59833,7 @@
       <c r="FM30" s="283"/>
       <c r="FN30" s="283"/>
       <c r="FO30" s="283"/>
-      <c r="FP30" s="423"/>
+      <c r="FP30" s="421"/>
       <c r="FQ30" s="281"/>
       <c r="FR30" s="283"/>
       <c r="FS30" s="283"/>
@@ -59809,7 +59841,7 @@
       <c r="FU30" s="283"/>
       <c r="FV30" s="283"/>
       <c r="FW30" s="283"/>
-      <c r="FX30" s="423"/>
+      <c r="FX30" s="421"/>
       <c r="FY30" s="281"/>
       <c r="FZ30" s="283"/>
       <c r="GA30" s="283"/>
@@ -59817,7 +59849,7 @@
       <c r="GC30" s="283"/>
       <c r="GD30" s="283"/>
       <c r="GE30" s="283"/>
-      <c r="GF30" s="423"/>
+      <c r="GF30" s="421"/>
       <c r="GG30" s="281"/>
       <c r="GH30" s="283"/>
       <c r="GI30" s="283"/>
@@ -59825,7 +59857,7 @@
       <c r="GK30" s="283"/>
       <c r="GL30" s="283"/>
       <c r="GM30" s="283"/>
-      <c r="GN30" s="423"/>
+      <c r="GN30" s="421"/>
       <c r="GO30" s="281"/>
       <c r="GP30" s="283"/>
       <c r="GQ30" s="283"/>
@@ -59833,7 +59865,7 @@
       <c r="GS30" s="283"/>
       <c r="GT30" s="283"/>
       <c r="GU30" s="283"/>
-      <c r="GV30" s="423"/>
+      <c r="GV30" s="421"/>
       <c r="GW30" s="281"/>
       <c r="GX30" s="283"/>
       <c r="GY30" s="283"/>
@@ -59841,7 +59873,7 @@
       <c r="HA30" s="283"/>
       <c r="HB30" s="283"/>
       <c r="HC30" s="283"/>
-      <c r="HD30" s="423"/>
+      <c r="HD30" s="421"/>
       <c r="HE30" s="281"/>
       <c r="HF30" s="283"/>
       <c r="HG30" s="283"/>
@@ -59851,7 +59883,7 @@
       <c r="HK30" s="283"/>
     </row>
     <row r="31" spans="1:219" s="278" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A31" s="417">
+      <c r="A31" s="415">
         <v>2012</v>
       </c>
       <c r="B31" s="258" t="s">
@@ -59875,7 +59907,7 @@
       <c r="H31" s="285">
         <v>21602</v>
       </c>
-      <c r="I31" s="417">
+      <c r="I31" s="415">
         <v>2012</v>
       </c>
       <c r="J31" s="256" t="s">
@@ -59903,7 +59935,7 @@
       <c r="R31" s="277"/>
     </row>
     <row r="32" spans="1:219" s="278" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A32" s="418"/>
+      <c r="A32" s="416"/>
       <c r="B32" s="258" t="s">
         <v>903</v>
       </c>
@@ -59925,7 +59957,7 @@
       <c r="H32" s="267">
         <v>0.1</v>
       </c>
-      <c r="I32" s="418"/>
+      <c r="I32" s="416"/>
       <c r="J32" s="258" t="s">
         <v>903</v>
       </c>
@@ -59951,7 +59983,7 @@
       <c r="R32" s="277"/>
     </row>
     <row r="33" spans="1:18" s="289" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A33" s="419"/>
+      <c r="A33" s="417"/>
       <c r="B33" s="261" t="s">
         <v>904</v>
       </c>
@@ -59973,7 +60005,7 @@
       <c r="H33" s="267">
         <v>3</v>
       </c>
-      <c r="I33" s="419"/>
+      <c r="I33" s="417"/>
       <c r="J33" s="261" t="s">
         <v>904</v>
       </c>
@@ -59999,7 +60031,7 @@
       <c r="R33" s="288"/>
     </row>
     <row r="34" spans="1:18" s="275" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A34" s="417">
+      <c r="A34" s="415">
         <v>2013</v>
       </c>
       <c r="B34" s="253" t="s">
@@ -60023,7 +60055,7 @@
       <c r="H34" s="285">
         <v>22353</v>
       </c>
-      <c r="I34" s="417">
+      <c r="I34" s="415">
         <v>2013</v>
       </c>
       <c r="J34" s="256" t="s">
@@ -60050,7 +60082,7 @@
       <c r="R34" s="276"/>
     </row>
     <row r="35" spans="1:18" s="275" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A35" s="418"/>
+      <c r="A35" s="416"/>
       <c r="B35" s="258" t="s">
         <v>903</v>
       </c>
@@ -60072,7 +60104,7 @@
       <c r="H35" s="267">
         <v>0.1</v>
       </c>
-      <c r="I35" s="418"/>
+      <c r="I35" s="416"/>
       <c r="J35" s="258" t="s">
         <v>903</v>
       </c>
@@ -60097,7 +60129,7 @@
       <c r="R35" s="276"/>
     </row>
     <row r="36" spans="1:18" s="290" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A36" s="419"/>
+      <c r="A36" s="417"/>
       <c r="B36" s="261" t="s">
         <v>904</v>
       </c>
@@ -60119,7 +60151,7 @@
       <c r="H36" s="267">
         <v>3.5</v>
       </c>
-      <c r="I36" s="419"/>
+      <c r="I36" s="417"/>
       <c r="J36" s="261" t="s">
         <v>904</v>
       </c>
@@ -60144,7 +60176,7 @@
       <c r="R36" s="291"/>
     </row>
     <row r="37" spans="1:18" s="294" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A37" s="417">
+      <c r="A37" s="415">
         <v>2014</v>
       </c>
       <c r="B37" s="253" t="s">
@@ -60168,7 +60200,7 @@
       <c r="H37" s="285">
         <v>24648</v>
       </c>
-      <c r="I37" s="417">
+      <c r="I37" s="415">
         <v>2014</v>
       </c>
       <c r="J37" s="253" t="s">
@@ -60195,7 +60227,7 @@
       <c r="R37" s="295"/>
     </row>
     <row r="38" spans="1:18" s="294" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A38" s="418"/>
+      <c r="A38" s="416"/>
       <c r="B38" s="258" t="s">
         <v>907</v>
       </c>
@@ -60217,7 +60249,7 @@
       <c r="H38" s="267">
         <v>0.1</v>
       </c>
-      <c r="I38" s="418"/>
+      <c r="I38" s="416"/>
       <c r="J38" s="258" t="s">
         <v>907</v>
       </c>
@@ -60242,7 +60274,7 @@
       <c r="R38" s="295"/>
     </row>
     <row r="39" spans="1:18" s="296" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A39" s="419"/>
+      <c r="A39" s="417"/>
       <c r="B39" s="261" t="s">
         <v>908</v>
       </c>
@@ -60264,7 +60296,7 @@
       <c r="H39" s="267">
         <v>10.3</v>
       </c>
-      <c r="I39" s="419"/>
+      <c r="I39" s="417"/>
       <c r="J39" s="261" t="s">
         <v>908</v>
       </c>
@@ -60289,7 +60321,7 @@
       <c r="R39" s="297"/>
     </row>
     <row r="40" spans="1:18" s="296" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A40" s="417">
+      <c r="A40" s="415">
         <v>2015</v>
       </c>
       <c r="B40" s="258" t="s">
@@ -60313,7 +60345,7 @@
       <c r="H40" s="265">
         <v>27980</v>
       </c>
-      <c r="I40" s="417">
+      <c r="I40" s="415">
         <v>2015</v>
       </c>
       <c r="J40" s="298" t="s">
@@ -60341,7 +60373,7 @@
       <c r="R40" s="297"/>
     </row>
     <row r="41" spans="1:18" s="296" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A41" s="418"/>
+      <c r="A41" s="416"/>
       <c r="B41" s="258" t="s">
         <v>903</v>
       </c>
@@ -60363,7 +60395,7 @@
       <c r="H41" s="267">
         <v>0.1</v>
       </c>
-      <c r="I41" s="418"/>
+      <c r="I41" s="416"/>
       <c r="J41" s="258" t="s">
         <v>903</v>
       </c>
@@ -60389,7 +60421,7 @@
       <c r="R41" s="297"/>
     </row>
     <row r="42" spans="1:18" s="296" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A42" s="419"/>
+      <c r="A42" s="417"/>
       <c r="B42" s="258" t="s">
         <v>904</v>
       </c>
@@ -60411,7 +60443,7 @@
       <c r="H42" s="267">
         <v>13.5</v>
       </c>
-      <c r="I42" s="419"/>
+      <c r="I42" s="417"/>
       <c r="J42" s="258" t="s">
         <v>904</v>
       </c>
@@ -60437,7 +60469,7 @@
       <c r="R42" s="297"/>
     </row>
     <row r="43" spans="1:18" s="296" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A43" s="417">
+      <c r="A43" s="415">
         <v>2016</v>
       </c>
       <c r="B43" s="253" t="s">
@@ -60461,7 +60493,7 @@
       <c r="H43" s="285">
         <v>30913</v>
       </c>
-      <c r="I43" s="417">
+      <c r="I43" s="415">
         <v>2016</v>
       </c>
       <c r="J43" s="253" t="s">
@@ -60489,7 +60521,7 @@
       <c r="R43" s="297"/>
     </row>
     <row r="44" spans="1:18" s="296" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A44" s="418"/>
+      <c r="A44" s="416"/>
       <c r="B44" s="258" t="s">
         <v>907</v>
       </c>
@@ -60511,7 +60543,7 @@
       <c r="H44" s="267">
         <v>9.3227387518169808E-2</v>
       </c>
-      <c r="I44" s="418"/>
+      <c r="I44" s="416"/>
       <c r="J44" s="258" t="s">
         <v>907</v>
       </c>
@@ -60537,7 +60569,7 @@
       <c r="R44" s="306"/>
     </row>
     <row r="45" spans="1:18" s="296" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A45" s="419"/>
+      <c r="A45" s="417"/>
       <c r="B45" s="261" t="s">
         <v>908</v>
       </c>
@@ -60559,7 +60591,7 @@
       <c r="H45" s="267">
         <v>10.5</v>
       </c>
-      <c r="I45" s="419"/>
+      <c r="I45" s="417"/>
       <c r="J45" s="261" t="s">
         <v>908</v>
       </c>
@@ -60584,7 +60616,7 @@
       <c r="R45" s="297"/>
     </row>
     <row r="46" spans="1:18" s="296" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A46" s="417">
+      <c r="A46" s="415">
         <v>2017</v>
       </c>
       <c r="B46" s="253" t="s">
@@ -60608,7 +60640,7 @@
       <c r="H46" s="265">
         <v>32406</v>
       </c>
-      <c r="I46" s="417">
+      <c r="I46" s="415">
         <v>2017</v>
       </c>
       <c r="J46" s="253" t="s">
@@ -60636,7 +60668,7 @@
       <c r="R46" s="297"/>
     </row>
     <row r="47" spans="1:18" s="296" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A47" s="418"/>
+      <c r="A47" s="416"/>
       <c r="B47" s="258" t="s">
         <v>907</v>
       </c>
@@ -60658,7 +60690,7 @@
       <c r="H47" s="267">
         <v>0.1</v>
       </c>
-      <c r="I47" s="418"/>
+      <c r="I47" s="416"/>
       <c r="J47" s="258" t="s">
         <v>907</v>
       </c>
@@ -60684,7 +60716,7 @@
       <c r="R47" s="306"/>
     </row>
     <row r="48" spans="1:18" s="296" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A48" s="419"/>
+      <c r="A48" s="417"/>
       <c r="B48" s="261" t="s">
         <v>908</v>
       </c>
@@ -60706,7 +60738,7 @@
       <c r="H48" s="267">
         <v>4.8296833047585155</v>
       </c>
-      <c r="I48" s="419"/>
+      <c r="I48" s="417"/>
       <c r="J48" s="261" t="s">
         <v>908</v>
       </c>
@@ -60731,7 +60763,7 @@
       <c r="R48" s="297"/>
     </row>
     <row r="49" spans="1:18" s="296" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A49" s="425">
+      <c r="A49" s="418">
         <v>2018</v>
       </c>
       <c r="B49" s="309" t="s">
@@ -60755,7 +60787,7 @@
       <c r="H49" s="310">
         <v>31600.61</v>
       </c>
-      <c r="I49" s="425">
+      <c r="I49" s="418">
         <v>2018</v>
       </c>
       <c r="J49" s="309" t="s">
@@ -60782,7 +60814,7 @@
       <c r="R49" s="297"/>
     </row>
     <row r="50" spans="1:18" s="296" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A50" s="425"/>
+      <c r="A50" s="418"/>
       <c r="B50" s="309" t="s">
         <v>907</v>
       </c>
@@ -60804,7 +60836,7 @@
       <c r="H50" s="313">
         <v>9.4061231106730009E-2</v>
       </c>
-      <c r="I50" s="425"/>
+      <c r="I50" s="418"/>
       <c r="J50" s="309" t="s">
         <v>907</v>
       </c>
@@ -60829,7 +60861,7 @@
       <c r="R50" s="297"/>
     </row>
     <row r="51" spans="1:18" s="296" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A51" s="426"/>
+      <c r="A51" s="419"/>
       <c r="B51" s="315" t="s">
         <v>908</v>
       </c>
@@ -60851,7 +60883,7 @@
       <c r="H51" s="317">
         <v>-2.4853113620934377</v>
       </c>
-      <c r="I51" s="426"/>
+      <c r="I51" s="419"/>
       <c r="J51" s="315" t="s">
         <v>908</v>
       </c>
@@ -60876,16 +60908,16 @@
       <c r="R51" s="297"/>
     </row>
     <row r="52" spans="1:18" s="320" customFormat="1" ht="55.15" customHeight="1">
-      <c r="A52" s="424" t="s">
+      <c r="A52" s="414" t="s">
         <v>909</v>
       </c>
-      <c r="B52" s="424"/>
-      <c r="C52" s="424"/>
-      <c r="D52" s="424"/>
-      <c r="E52" s="424"/>
-      <c r="F52" s="424"/>
-      <c r="G52" s="424"/>
-      <c r="H52" s="424"/>
+      <c r="B52" s="414"/>
+      <c r="C52" s="414"/>
+      <c r="D52" s="414"/>
+      <c r="E52" s="414"/>
+      <c r="F52" s="414"/>
+      <c r="G52" s="414"/>
+      <c r="H52" s="414"/>
     </row>
     <row r="53" spans="1:18">
       <c r="B53" s="320"/>
@@ -60894,24 +60926,38 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="A52:H52"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="I43:I45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="I46:I48"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="I49:I51"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="I34:I36"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="FX28:FX30"/>
-    <mergeCell ref="GF28:GF30"/>
-    <mergeCell ref="GN28:GN30"/>
-    <mergeCell ref="GV28:GV30"/>
-    <mergeCell ref="HD28:HD30"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="T28:T30"/>
+    <mergeCell ref="EZ28:EZ30"/>
+    <mergeCell ref="FH28:FH30"/>
+    <mergeCell ref="FP28:FP30"/>
+    <mergeCell ref="CF28:CF30"/>
+    <mergeCell ref="CN28:CN30"/>
+    <mergeCell ref="CV28:CV30"/>
+    <mergeCell ref="DD28:DD30"/>
+    <mergeCell ref="DL28:DL30"/>
+    <mergeCell ref="DT28:DT30"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="I31:I33"/>
     <mergeCell ref="EB28:EB30"/>
@@ -60924,38 +60970,24 @@
     <mergeCell ref="BP28:BP30"/>
     <mergeCell ref="BX28:BX30"/>
     <mergeCell ref="AB28:AB30"/>
-    <mergeCell ref="EZ28:EZ30"/>
-    <mergeCell ref="FH28:FH30"/>
-    <mergeCell ref="FP28:FP30"/>
-    <mergeCell ref="CF28:CF30"/>
-    <mergeCell ref="CN28:CN30"/>
-    <mergeCell ref="CV28:CV30"/>
-    <mergeCell ref="DD28:DD30"/>
-    <mergeCell ref="DL28:DL30"/>
-    <mergeCell ref="DT28:DT30"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="T28:T30"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="FX28:FX30"/>
+    <mergeCell ref="GF28:GF30"/>
+    <mergeCell ref="GN28:GN30"/>
+    <mergeCell ref="GV28:GV30"/>
+    <mergeCell ref="HD28:HD30"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="I34:I36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="A52:H52"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="I49:I51"/>
   </mergeCells>
   <phoneticPr fontId="42" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
